--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Model Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C86C38C-5FCA-41E7-9E8A-00D8C06E87FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA0255-1808-47B4-B581-5E22904BD5B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25530" yWindow="-1305" windowWidth="22875" windowHeight="14655" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Selection Control" sheetId="2" r:id="rId2"/>
+    <sheet name="IMS Brand Names" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,28 +33,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Generics Forecasting Model: User Input</t>
-  </si>
-  <si>
-    <t>Brand Name:</t>
-  </si>
-  <si>
-    <t>Gleevec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Branded</t>
   </si>
   <si>
+    <t>Generic</t>
+  </si>
+  <si>
     <t>Branded/Generic:</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Channel:</t>
+  </si>
+  <si>
+    <t>Anticipated Gx Competitors by Year:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Branded Name:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(must match IMS Combined Molecule exactly)</t>
+    </r>
+  </si>
+  <si>
+    <t>BAG BALM</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>LANTISEPTIC</t>
+  </si>
+  <si>
+    <t>EPZICOM</t>
+  </si>
+  <si>
+    <t>ABACAVIR/LAMIVUDINE</t>
+  </si>
+  <si>
+    <t>SECTRAL</t>
+  </si>
+  <si>
+    <t>ACEBUTOLOL HCL</t>
+  </si>
+  <si>
+    <t>ESGIC-PLUS</t>
+  </si>
+  <si>
+    <t>ORBIVAN</t>
+  </si>
+  <si>
+    <t>ANOLOR 300</t>
+  </si>
+  <si>
+    <t>CAPACET</t>
+  </si>
+  <si>
+    <t>MARGESIC</t>
+  </si>
+  <si>
+    <t>ESGIC</t>
+  </si>
+  <si>
+    <t>ZEBUTAL</t>
+  </si>
+  <si>
+    <t>FIORICET</t>
+  </si>
+  <si>
+    <t>BUTALB/APAP/CAF</t>
+  </si>
+  <si>
+    <t>REPAN</t>
+  </si>
+  <si>
+    <t>DOLGIC PLUS</t>
+  </si>
+  <si>
+    <t>VANATOL</t>
+  </si>
+  <si>
+    <t>ALAGESIC LQ</t>
+  </si>
+  <si>
+    <t>ALKA-SEL PLUS CLD/CGH</t>
+  </si>
+  <si>
+    <t>APAP/CPM/DM/PSE</t>
+  </si>
+  <si>
+    <t>CONTAC SEVERE COLD FORM</t>
+  </si>
+  <si>
+    <t>THERAFLU SEVERE C&amp;C</t>
+  </si>
+  <si>
+    <t>TYLENOL CHILD+FLU</t>
+  </si>
+  <si>
+    <t>PROPOXYPHEN-N/APAP</t>
+  </si>
+  <si>
+    <t>CEREFOLIN NAC</t>
+  </si>
+  <si>
+    <t>MEFOLAT/NAC/B12/AL</t>
+  </si>
+  <si>
+    <t>L-METHYL-MC NAC</t>
+  </si>
+  <si>
+    <t>MEFOLATE/B12/NCN</t>
+  </si>
+  <si>
+    <t>LEVOMEFOLATE CAL/NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS RF</t>
+  </si>
+  <si>
+    <t>ALZ-NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS</t>
+  </si>
+  <si>
+    <t>GLEEVEC</t>
+  </si>
+  <si>
+    <t>IMATINIB MESY</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>API Price per Unit:</t>
+  </si>
+  <si>
+    <t>Excipients:</t>
+  </si>
+  <si>
+    <t>Forecast Assumptions</t>
+  </si>
+  <si>
+    <t>Automated model - do not modify this file other than to enter parameters in highlighted cells</t>
+  </si>
+  <si>
+    <t>Direct Labor:</t>
+  </si>
+  <si>
+    <t>Variable Overhead:</t>
+  </si>
+  <si>
+    <t>Fixed Overhead:</t>
+  </si>
+  <si>
+    <t>Depreciation:</t>
+  </si>
+  <si>
+    <t>CMO Markup:</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Growth Rate: </t>
+  </si>
+  <si>
+    <t>Launch Month:</t>
+  </si>
+  <si>
+    <t>Launch Year:</t>
+  </si>
+  <si>
+    <t>Generics Forecasting Model User Input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +282,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +329,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,9 +363,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,40 +698,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="11"/>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="H3" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2029</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
+      <formula1>2018</formula1>
+      <formula2>2030</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C8A8C44-ABB0-46EA-A13E-9F841BC37131}">
+          <x14:formula1>
+            <xm:f>'IMS Brand Names'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E2E1D-1DA7-43EC-A894-786AF7D64AE1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F62D830-0C4A-41C4-A251-AA4AA1A50AFF}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A142">
+    <sortCondition ref="A1:A142"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Model Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA0255-1808-47B4-B581-5E22904BD5B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA01AE78-5F3D-4ADC-A4E7-7359E4F1718A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>Branded</t>
   </si>
@@ -74,11 +74,305 @@
     <t>Channel:</t>
   </si>
   <si>
-    <t>Anticipated Gx Competitors by Year:</t>
+    <t>BAG BALM</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>LANTISEPTIC</t>
+  </si>
+  <si>
+    <t>EPZICOM</t>
+  </si>
+  <si>
+    <t>ABACAVIR/LAMIVUDINE</t>
+  </si>
+  <si>
+    <t>SECTRAL</t>
+  </si>
+  <si>
+    <t>ACEBUTOLOL HCL</t>
+  </si>
+  <si>
+    <t>ESGIC-PLUS</t>
+  </si>
+  <si>
+    <t>ORBIVAN</t>
+  </si>
+  <si>
+    <t>ANOLOR 300</t>
+  </si>
+  <si>
+    <t>CAPACET</t>
+  </si>
+  <si>
+    <t>MARGESIC</t>
+  </si>
+  <si>
+    <t>ESGIC</t>
+  </si>
+  <si>
+    <t>ZEBUTAL</t>
+  </si>
+  <si>
+    <t>FIORICET</t>
+  </si>
+  <si>
+    <t>BUTALB/APAP/CAF</t>
+  </si>
+  <si>
+    <t>REPAN</t>
+  </si>
+  <si>
+    <t>DOLGIC PLUS</t>
+  </si>
+  <si>
+    <t>VANATOL</t>
+  </si>
+  <si>
+    <t>ALAGESIC LQ</t>
+  </si>
+  <si>
+    <t>ALKA-SEL PLUS CLD/CGH</t>
+  </si>
+  <si>
+    <t>APAP/CPM/DM/PSE</t>
+  </si>
+  <si>
+    <t>CONTAC SEVERE COLD FORM</t>
+  </si>
+  <si>
+    <t>THERAFLU SEVERE C&amp;C</t>
+  </si>
+  <si>
+    <t>TYLENOL CHILD+FLU</t>
+  </si>
+  <si>
+    <t>PROPOXYPHEN-N/APAP</t>
+  </si>
+  <si>
+    <t>CEREFOLIN NAC</t>
+  </si>
+  <si>
+    <t>MEFOLAT/NAC/B12/AL</t>
+  </si>
+  <si>
+    <t>L-METHYL-MC NAC</t>
+  </si>
+  <si>
+    <t>MEFOLATE/B12/NCN</t>
+  </si>
+  <si>
+    <t>LEVOMEFOLATE CAL/NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS RF</t>
+  </si>
+  <si>
+    <t>ALZ-NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS</t>
+  </si>
+  <si>
+    <t>GLEEVEC</t>
+  </si>
+  <si>
+    <t>IMATINIB MESY</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Excipients:</t>
+  </si>
+  <si>
+    <t>Forecast Assumptions</t>
+  </si>
+  <si>
+    <t>Automated model - do not modify this file other than to enter parameters in highlighted cells</t>
+  </si>
+  <si>
+    <t>Direct Labor:</t>
+  </si>
+  <si>
+    <t>Variable Overhead:</t>
+  </si>
+  <si>
+    <t>Fixed Overhead:</t>
+  </si>
+  <si>
+    <t>Depreciation:</t>
+  </si>
+  <si>
+    <t>CMO Markup:</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Generics Forecasting Model User Input</t>
+  </si>
+  <si>
+    <t>Indication:</t>
+  </si>
+  <si>
+    <t>Presentation:</t>
+  </si>
+  <si>
+    <t>Able to be inferred:</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>product form</t>
+  </si>
+  <si>
+    <t>molecule (synonymous with generic name?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments: </t>
+  </si>
+  <si>
+    <t>Channel Detail:</t>
+  </si>
+  <si>
+    <t>LOE Year:</t>
+  </si>
+  <si>
+    <t>Competition Detail:</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Number of Gx Competitors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Growth Rate: </t>
+  </si>
+  <si>
+    <t>Vertice Launch Year:</t>
+  </si>
+  <si>
+    <t>WAC Increase %:</t>
+  </si>
+  <si>
+    <t>GTN %:</t>
+  </si>
+  <si>
+    <t>Chargeback %:</t>
+  </si>
+  <si>
+    <t>Price Discount of Current Gx Net Price:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other GTN %: </t>
+  </si>
+  <si>
+    <t>forecasting: use current year - 1 as base for volume forecasts</t>
+  </si>
+  <si>
+    <t>Cost Increase %:</t>
+  </si>
+  <si>
+    <t>Distribution %:</t>
+  </si>
+  <si>
+    <t>Writeoffs %:</t>
+  </si>
+  <si>
+    <t>Profit Share %:</t>
+  </si>
+  <si>
+    <t>Milestone Payments ($):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG&amp;A ($): </t>
+  </si>
+  <si>
+    <t>Incremental R&amp;D Headcount Expense:</t>
+  </si>
+  <si>
+    <t>R&amp;D Infrastructure Cost:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D Total ($): </t>
+  </si>
+  <si>
+    <t>DSO</t>
+  </si>
+  <si>
+    <t>DPO</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>Discount Rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate: </t>
+  </si>
+  <si>
+    <t>Working Capital</t>
+  </si>
+  <si>
+    <t>Valuation Assumptions</t>
+  </si>
+  <si>
+    <t>Annual Assumptions &amp; Costs</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>P&amp;L Line</t>
+  </si>
+  <si>
+    <t>Capitalized Items</t>
+  </si>
+  <si>
+    <t>Net Proceeds from Disposals:</t>
+  </si>
+  <si>
+    <t>Writeoff of Residual Tax Value:</t>
+  </si>
+  <si>
+    <t>Other Income, Expenses &amp; Exceptional Items:</t>
+  </si>
+  <si>
+    <t>Additional Non-Cash Effects:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Net Current Assets: </t>
+  </si>
+  <si>
+    <t>Capital Avoidance:</t>
+  </si>
+  <si>
+    <t>Exit Multiple:</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Branded Name:
+      <t xml:space="preserve">R&amp;D Project Expense:
 </t>
     </r>
     <r>
@@ -90,183 +384,88 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(must match IMS Combined Molecule exactly)</t>
+      <t>(Input all expenses as negative numbers)</t>
     </r>
   </si>
   <si>
-    <t>BAG BALM</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>LANTISEPTIC</t>
-  </si>
-  <si>
-    <t>EPZICOM</t>
-  </si>
-  <si>
-    <t>ABACAVIR/LAMIVUDINE</t>
-  </si>
-  <si>
-    <t>SECTRAL</t>
-  </si>
-  <si>
-    <t>ACEBUTOLOL HCL</t>
-  </si>
-  <si>
-    <t>ESGIC-PLUS</t>
-  </si>
-  <si>
-    <t>ORBIVAN</t>
-  </si>
-  <si>
-    <t>ANOLOR 300</t>
-  </si>
-  <si>
-    <t>CAPACET</t>
-  </si>
-  <si>
-    <t>MARGESIC</t>
-  </si>
-  <si>
-    <t>ESGIC</t>
-  </si>
-  <si>
-    <t>ZEBUTAL</t>
-  </si>
-  <si>
-    <t>FIORICET</t>
-  </si>
-  <si>
-    <t>BUTALB/APAP/CAF</t>
-  </si>
-  <si>
-    <t>REPAN</t>
-  </si>
-  <si>
-    <t>DOLGIC PLUS</t>
-  </si>
-  <si>
-    <t>VANATOL</t>
-  </si>
-  <si>
-    <t>ALAGESIC LQ</t>
-  </si>
-  <si>
-    <t>ALKA-SEL PLUS CLD/CGH</t>
-  </si>
-  <si>
-    <t>APAP/CPM/DM/PSE</t>
-  </si>
-  <si>
-    <t>CONTAC SEVERE COLD FORM</t>
-  </si>
-  <si>
-    <t>THERAFLU SEVERE C&amp;C</t>
-  </si>
-  <si>
-    <t>TYLENOL CHILD+FLU</t>
-  </si>
-  <si>
-    <t>PROPOXYPHEN-N/APAP</t>
-  </si>
-  <si>
-    <t>CEREFOLIN NAC</t>
-  </si>
-  <si>
-    <t>MEFOLAT/NAC/B12/AL</t>
-  </si>
-  <si>
-    <t>L-METHYL-MC NAC</t>
-  </si>
-  <si>
-    <t>MEFOLATE/B12/NCN</t>
-  </si>
-  <si>
-    <t>LEVOMEFOLATE CAL/NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS RF</t>
-  </si>
-  <si>
-    <t>ALZ-NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS</t>
-  </si>
-  <si>
-    <t>GLEEVEC</t>
-  </si>
-  <si>
-    <t>IMATINIB MESY</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>API Price per Unit:</t>
-  </si>
-  <si>
-    <t>Excipients:</t>
-  </si>
-  <si>
-    <t>Forecast Assumptions</t>
-  </si>
-  <si>
-    <t>Automated model - do not modify this file other than to enter parameters in highlighted cells</t>
-  </si>
-  <si>
-    <t>Direct Labor:</t>
-  </si>
-  <si>
-    <t>Variable Overhead:</t>
-  </si>
-  <si>
-    <t>Fixed Overhead:</t>
-  </si>
-  <si>
-    <t>Depreciation:</t>
-  </si>
-  <si>
-    <t>CMO Markup:</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Growth Rate: </t>
-  </si>
-  <si>
-    <t>Launch Month:</t>
-  </si>
-  <si>
-    <t>Launch Year:</t>
-  </si>
-  <si>
-    <t>Generics Forecasting Model User Input</t>
+    <t xml:space="preserve">If strength cannot be parsed, assume per-unit API price of: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API Price per Unit:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Per 1 ML/MG/GM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Branded Name: </t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probability of Success:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Enter as decimal)</t>
+    </r>
+  </si>
+  <si>
+    <t>Additional P&amp;L Entries</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt;</t>
+  </si>
+  <si>
+    <t>gx penetration: calculate from IMS - first year with GENERIC line item having unit sales. OR if no generics yet, first year with gx competitors identified by user</t>
+  </si>
+  <si>
+    <t>Gx Market Share:</t>
+  </si>
+  <si>
+    <t>Vertice Launch Month:</t>
+  </si>
+  <si>
+    <t>Vertice Filing Month</t>
+  </si>
+  <si>
+    <t>Vertice Filing Year</t>
+  </si>
+  <si>
+    <t>indication example</t>
+  </si>
+  <si>
+    <t>Depreciation Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +517,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +556,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -359,11 +577,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -371,19 +604,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,320 +965,1100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="6"/>
     <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="H1" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="H2" s="14" t="s">
-        <v>63</v>
+      <c r="H2" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3"/>
-      <c r="H3" s="15" t="s">
-        <v>64</v>
+      <c r="H3" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="28">
+        <f>SUM(B24:B25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="B33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="30"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="26"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="32">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="33">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="33">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C57" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="D57" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2024</v>
+      </c>
+      <c r="H57" s="12">
+        <v>2025</v>
+      </c>
+      <c r="I57" s="12">
+        <v>2026</v>
+      </c>
+      <c r="J57" s="12">
+        <v>2027</v>
+      </c>
+      <c r="K57" s="12">
+        <v>2028</v>
+      </c>
+      <c r="L57" s="12">
+        <v>2029</v>
+      </c>
+      <c r="M57" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+    </row>
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A65" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A66" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="12">
         <v>2019</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="D70" s="12">
         <v>2020</v>
       </c>
-      <c r="B32" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="E70" s="12">
         <v>2021</v>
       </c>
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="F70" s="12">
         <v>2022</v>
       </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="G70" s="12">
         <v>2023</v>
       </c>
-      <c r="B35" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="H70" s="12">
         <v>2024</v>
       </c>
-      <c r="B36" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="I70" s="12">
         <v>2025</v>
       </c>
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="J70" s="12">
         <v>2026</v>
       </c>
-      <c r="B38" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="K70" s="12">
         <v>2027</v>
       </c>
-      <c r="B39" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="L70" s="12">
         <v>2028</v>
       </c>
-      <c r="B40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="M70" s="12">
         <v>2029</v>
       </c>
-      <c r="B41" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="N70" s="12">
         <v>2030</v>
       </c>
-      <c r="B42" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="16"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="19"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D79" s="12">
+        <v>2020</v>
+      </c>
+      <c r="E79" s="12">
+        <v>2021</v>
+      </c>
+      <c r="F79" s="12">
+        <v>2022</v>
+      </c>
+      <c r="G79" s="12">
+        <v>2023</v>
+      </c>
+      <c r="H79" s="12">
+        <v>2024</v>
+      </c>
+      <c r="I79" s="12">
+        <v>2025</v>
+      </c>
+      <c r="J79" s="12">
+        <v>2026</v>
+      </c>
+      <c r="K79" s="12">
+        <v>2027</v>
+      </c>
+      <c r="L79" s="12">
+        <v>2028</v>
+      </c>
+      <c r="M79" s="12">
+        <v>2029</v>
+      </c>
+      <c r="N79" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="16"/>
+    </row>
+    <row r="85" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="16"/>
+    </row>
+    <row r="86" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B9" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
       <formula1>2018</formula1>
       <formula2>2030</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{5AAFD038-1167-4616-998D-14EBD06205E4}">
+      <formula1>2018</formula1>
+      <formula2>2040</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,11 +2078,11 @@
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C8A8C44-ABB0-46EA-A13E-9F841BC37131}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1778EE75-F1D9-4BE3-8586-B9830D433E35}">
           <x14:formula1>
-            <xm:f>'IMS Brand Names'!$A:$A</xm:f>
+            <xm:f>'Selection Control'!$D$1:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B80:B83</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1045,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E2E1D-1DA7-43EC-A894-786AF7D64AE1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,7 +2105,7 @@
     <col min="3" max="3" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1068,8 +2115,11 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1079,8 +2129,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1090,16 +2143,22 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1124,182 +2183,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Model Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA01AE78-5F3D-4ADC-A4E7-7359E4F1718A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34E1B7-CE45-4390-8D66-297C264034D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>Branded</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>Item Name</t>
-  </si>
-  <si>
-    <t>P&amp;L Line</t>
   </si>
   <si>
     <t>Capitalized Items</t>
@@ -388,26 +385,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">If strength cannot be parsed, assume per-unit API price of: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">API Price per Unit:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Per 1 ML/MG/GM</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Branded Name: </t>
   </si>
   <si>
@@ -456,9 +433,6 @@
   </si>
   <si>
     <t>indication example</t>
-  </si>
-  <si>
-    <t>Depreciation Rate</t>
   </si>
 </sst>
 </file>
@@ -596,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -620,8 +594,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -646,11 +618,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,25 +988,25 @@
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>116</v>
+      <c r="A5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -1042,22 +1014,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>8</v>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>116</v>
+      <c r="B8" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -1065,24 +1037,24 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="30"/>
+        <v>121</v>
+      </c>
+      <c r="B9" s="28"/>
       <c r="H9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="30"/>
+        <v>122</v>
+      </c>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="26">
+        <v>120</v>
+      </c>
+      <c r="B11" s="24">
         <v>4</v>
       </c>
     </row>
@@ -1090,7 +1062,7 @@
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>2020</v>
       </c>
     </row>
@@ -1098,39 +1070,39 @@
       <c r="A13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>126</v>
+      <c r="B13" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>116</v>
+      <c r="B14" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>116</v>
+      <c r="B15" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>116</v>
+      <c r="B16" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="30">
+        <v>114</v>
+      </c>
+      <c r="B17" s="28">
         <v>1</v>
       </c>
     </row>
@@ -1138,40 +1110,40 @@
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>116</v>
+      <c r="B18" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -1179,27 +1151,27 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <f>SUM(B24:B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>0</v>
       </c>
     </row>
@@ -1210,164 +1182,208 @@
       <c r="A30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="26"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="30"/>
+      <c r="A33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="30"/>
+      <c r="A34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="30"/>
+      <c r="A35" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="30"/>
+      <c r="A36" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="30"/>
+      <c r="A37" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="30"/>
+      <c r="A38" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="26"/>
+      <c r="A39" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="29">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="32">
-        <v>6.0000000000000001E-3</v>
-      </c>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="32">
-        <v>1.2E-2</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="11"/>
+      <c r="A42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="11"/>
+      <c r="A43" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="28">
+        <v>60</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="A44" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="28">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="24" t="s">
+      <c r="A45" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B45" s="28">
         <v>30</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="30">
+        <v>0.15</v>
+      </c>
+    </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="A50" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="30">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="33">
-        <v>0.15</v>
+      <c r="A51" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="28">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="33">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B54" s="11"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E55" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F55" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G55" s="12">
+        <v>2024</v>
+      </c>
+      <c r="H55" s="12">
+        <v>2025</v>
+      </c>
+      <c r="I55" s="12">
+        <v>2026</v>
+      </c>
+      <c r="J55" s="12">
+        <v>2027</v>
+      </c>
+      <c r="K55" s="12">
+        <v>2028</v>
+      </c>
+      <c r="L55" s="12">
+        <v>2029</v>
+      </c>
+      <c r="M55" s="12">
+        <v>2030</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -1383,151 +1399,127 @@
       <c r="M56" s="23"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C57" s="12">
-        <v>2020</v>
-      </c>
-      <c r="D57" s="12">
-        <v>2021</v>
-      </c>
-      <c r="E57" s="12">
-        <v>2022</v>
-      </c>
-      <c r="F57" s="12">
-        <v>2023</v>
-      </c>
-      <c r="G57" s="12">
-        <v>2024</v>
-      </c>
-      <c r="H57" s="12">
-        <v>2025</v>
-      </c>
-      <c r="I57" s="12">
-        <v>2026</v>
-      </c>
-      <c r="J57" s="12">
-        <v>2027</v>
-      </c>
-      <c r="K57" s="12">
-        <v>2028</v>
-      </c>
-      <c r="L57" s="12">
-        <v>2029</v>
-      </c>
-      <c r="M57" s="12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="A57" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
+      <c r="A59" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="24" t="s">
+      <c r="A60" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-    </row>
-    <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-    </row>
-    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="24" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+    </row>
+    <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="22" t="s">
         <v>91</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -1542,505 +1534,442 @@
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A67" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F68" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G68" s="12">
+        <v>2024</v>
+      </c>
+      <c r="H68" s="12">
+        <v>2025</v>
+      </c>
+      <c r="I68" s="12">
+        <v>2026</v>
+      </c>
+      <c r="J68" s="12">
+        <v>2027</v>
+      </c>
+      <c r="K68" s="12">
+        <v>2028</v>
+      </c>
+      <c r="L68" s="12">
+        <v>2029</v>
+      </c>
+      <c r="M68" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="31"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="31"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="31"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="31"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="31"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C77" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E77" s="12">
+        <v>2022</v>
+      </c>
+      <c r="F77" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G77" s="12">
+        <v>2024</v>
+      </c>
+      <c r="H77" s="12">
+        <v>2025</v>
+      </c>
+      <c r="I77" s="12">
+        <v>2026</v>
+      </c>
+      <c r="J77" s="12">
+        <v>2027</v>
+      </c>
+      <c r="K77" s="12">
+        <v>2028</v>
+      </c>
+      <c r="L77" s="12">
+        <v>2029</v>
+      </c>
+      <c r="M77" s="12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="28"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="28"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D70" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E70" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F70" s="12">
-        <v>2022</v>
-      </c>
-      <c r="G70" s="12">
-        <v>2023</v>
-      </c>
-      <c r="H70" s="12">
-        <v>2024</v>
-      </c>
-      <c r="I70" s="12">
-        <v>2025</v>
-      </c>
-      <c r="J70" s="12">
-        <v>2026</v>
-      </c>
-      <c r="K70" s="12">
-        <v>2027</v>
-      </c>
-      <c r="L70" s="12">
-        <v>2028</v>
-      </c>
-      <c r="M70" s="12">
-        <v>2029</v>
-      </c>
-      <c r="N70" s="12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="16"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="16"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="16"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="16"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="16"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="19"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="12">
-        <v>2019</v>
-      </c>
-      <c r="D79" s="12">
-        <v>2020</v>
-      </c>
-      <c r="E79" s="12">
-        <v>2021</v>
-      </c>
-      <c r="F79" s="12">
-        <v>2022</v>
-      </c>
-      <c r="G79" s="12">
-        <v>2023</v>
-      </c>
-      <c r="H79" s="12">
-        <v>2024</v>
-      </c>
-      <c r="I79" s="12">
-        <v>2025</v>
-      </c>
-      <c r="J79" s="12">
-        <v>2026</v>
-      </c>
-      <c r="K79" s="12">
-        <v>2027</v>
-      </c>
-      <c r="L79" s="12">
-        <v>2028</v>
-      </c>
-      <c r="M79" s="12">
-        <v>2029</v>
-      </c>
-      <c r="N79" s="12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="6"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="6"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="6"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+    </row>
+    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="6"/>
-    </row>
-    <row r="84" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+    </row>
+    <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="16"/>
-    </row>
-    <row r="85" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+    </row>
+    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="16"/>
-    </row>
-    <row r="86" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="16"/>
-    </row>
-    <row r="87" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="16"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="16"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="16"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2065,7 +1994,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
             <xm:f>'Selection Control'!$B$1:$B$3</xm:f>
@@ -2077,12 +2006,6 @@
             <xm:f>'Selection Control'!$C$1:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1778EE75-F1D9-4BE3-8586-B9830D433E35}">
-          <x14:formula1>
-            <xm:f>'Selection Control'!$D$1:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B80:B83</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2116,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\Documents\Clients\5. Vertice\Model Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34E1B7-CE45-4390-8D66-297C264034D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E8921-47BC-4233-A257-9C79E3C8690F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="125">
   <si>
     <t>Branded</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>Chargeback %:</t>
-  </si>
-  <si>
-    <t>Price Discount of Current Gx Net Price:</t>
   </si>
   <si>
     <t xml:space="preserve">Other GTN %: </t>
@@ -420,9 +417,6 @@
     <t>gx penetration: calculate from IMS - first year with GENERIC line item having unit sales. OR if no generics yet, first year with gx competitors identified by user</t>
   </si>
   <si>
-    <t>Gx Market Share:</t>
-  </si>
-  <si>
     <t>Vertice Launch Month:</t>
   </si>
   <si>
@@ -433,6 +427,15 @@
   </si>
   <si>
     <t>indication example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Discount of Current Gx Net Price: </t>
+  </si>
+  <si>
+    <t>Gx Penetration:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertice Gx Market Share: </t>
   </si>
 </sst>
 </file>
@@ -937,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,10 +999,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1029,7 +1032,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
         <v>68</v>
@@ -1037,7 +1040,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="28"/>
       <c r="H9" t="s">
@@ -1046,13 +1049,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" s="24">
         <v>4</v>
@@ -1071,7 +1074,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1079,7 +1082,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1087,7 +1090,7 @@
         <v>73</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1095,12 +1098,12 @@
         <v>74</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="28">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1130,7 +1133,7 @@
       </c>
       <c r="B22" s="24"/>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1147,12 +1150,12 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="24">
         <v>0</v>
@@ -1167,13 +1170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="24">
-        <v>0</v>
-      </c>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
@@ -1226,13 +1225,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="29">
         <v>6.0000000000000001E-3</v>
@@ -1240,7 +1239,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="29">
         <v>1.2E-2</v>
@@ -1254,7 +1253,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="6"/>
@@ -1264,7 +1263,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="28">
         <v>60</v>
@@ -1272,7 +1271,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="28">
         <v>60</v>
@@ -1280,7 +1279,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="28">
         <v>30</v>
@@ -1288,7 +1287,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="27"/>
       <c r="C48" s="6"/>
@@ -1298,7 +1297,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="30">
         <v>0.15</v>
@@ -1306,7 +1305,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="30">
         <v>0.21</v>
@@ -1314,7 +1313,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="28">
         <v>7</v>
@@ -1325,7 +1324,7 @@
     </row>
     <row r="54" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -1385,73 +1384,169 @@
       <c r="A56" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
+      <c r="B56" s="23">
+        <v>2</v>
+      </c>
+      <c r="C56" s="23">
+        <v>2</v>
+      </c>
+      <c r="D56" s="23">
+        <v>2</v>
+      </c>
+      <c r="E56" s="23">
+        <v>3</v>
+      </c>
+      <c r="F56" s="23">
+        <v>4</v>
+      </c>
+      <c r="G56" s="23">
+        <v>4</v>
+      </c>
+      <c r="H56" s="23">
+        <v>4</v>
+      </c>
+      <c r="I56" s="23">
+        <v>4</v>
+      </c>
+      <c r="J56" s="23">
+        <v>4</v>
+      </c>
+      <c r="K56" s="23">
+        <v>4</v>
+      </c>
+      <c r="L56" s="23">
+        <v>5</v>
+      </c>
+      <c r="M56" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
+        <v>123</v>
+      </c>
+      <c r="B57" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="F57" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="G57" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="H57" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="I57" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="J57" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="K57" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="L57" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="M57" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="B58" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="H58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="I58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="K58" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="L58" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="M58" s="23">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+        <v>122</v>
+      </c>
+      <c r="B59" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F59" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="J59" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="K59" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="L59" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="M59" s="23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
@@ -1466,9 +1561,9 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
     </row>
-    <row r="61" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
@@ -1483,9 +1578,9 @@
       <c r="L61" s="24"/>
       <c r="M61" s="24"/>
     </row>
-    <row r="62" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -1500,9 +1595,9 @@
       <c r="L62" s="24"/>
       <c r="M62" s="24"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -1517,137 +1612,141 @@
       <c r="L63" s="24"/>
       <c r="M63" s="24"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
+    <row r="64" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="10"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="A65" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="A66" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C70" s="12">
         <v>2020</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D70" s="12">
         <v>2021</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E70" s="12">
         <v>2022</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F70" s="12">
         <v>2023</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G70" s="12">
         <v>2024</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H70" s="12">
         <v>2025</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I70" s="12">
         <v>2026</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J70" s="12">
         <v>2027</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K70" s="12">
         <v>2028</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L70" s="12">
         <v>2029</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M70" s="12">
         <v>2030</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="31"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="31"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="31"/>
@@ -1695,132 +1794,124 @@
       <c r="M73" s="28"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="17"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="17"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="12">
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C79" s="12">
         <v>2020</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D79" s="12">
         <v>2021</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E79" s="12">
         <v>2022</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F79" s="12">
         <v>2023</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G79" s="12">
         <v>2024</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H79" s="12">
         <v>2025</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I79" s="12">
         <v>2026</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J79" s="12">
         <v>2027</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K79" s="12">
         <v>2028</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L79" s="12">
         <v>2029</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M79" s="12">
         <v>2030</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="6"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="31"/>
@@ -1839,7 +1930,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="31"/>
@@ -1856,43 +1947,47 @@
       <c r="N81" s="10"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="14" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-    </row>
-    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -1909,7 +2004,7 @@
     </row>
     <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -1924,9 +2019,9 @@
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -1941,9 +2036,9 @@
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -1959,17 +2054,51 @@
       <c r="M87" s="28"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="A88" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2039,7 +2168,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88E279B-AE1E-4585-A43C-F9AB00492EA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60C661-66BB-4F51-BDFE-BD685732EE48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="9795" windowWidth="22890" windowHeight="3675" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="58260" yWindow="8190" windowWidth="13830" windowHeight="7170" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
   <si>
     <t>Branded</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>R&amp;D Infrastructure Cost ($mil):</t>
+  </si>
+  <si>
+    <t>Is this needed?</t>
+  </si>
+  <si>
+    <t>password: Vertice</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -712,88 +718,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1114,7 +1172,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,196 +1230,203 @@
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="J4" s="38" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="J4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="J5" s="43" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="J5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="J6" s="42" t="s">
+      <c r="B6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="J6" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="J7" s="34" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="J7" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="J8" s="44" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="J8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="J9" s="39" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="J9" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="51">
-        <v>4</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="38">
+        <v>5</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="38">
         <v>2020</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="J13" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="40">
         <v>1</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1379,81 +1444,81 @@
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="52">
-        <v>0</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="41">
+        <v>0</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="B23" s="41">
+        <v>0</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="52">
-        <v>0</v>
-      </c>
-      <c r="C24" s="33" t="s">
+      <c r="B24" s="41">
+        <v>0</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="52">
-        <v>0</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="B25" s="41">
+        <v>0</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <f>SUM(B24:B25)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1467,124 +1532,124 @@
       <c r="A30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="54">
-        <v>0</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="B31" s="46">
+        <v>0</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="54">
-        <v>0</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="46">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="54">
-        <v>0</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="B33" s="46">
+        <v>0</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="54">
-        <v>0</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="B34" s="46">
+        <v>0</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="54">
-        <v>0</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="B35" s="46">
+        <v>0</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="54">
-        <v>0</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="46">
+        <v>0</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="52">
-        <v>0</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="B37" s="41">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="47">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="48">
         <f>2/171.2</f>
         <v>1.1682242990654207E-2</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1596,105 +1661,105 @@
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="49">
         <v>60</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="49">
         <v>60</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="49">
         <v>30</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="50">
         <v>0.15</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="50">
         <v>0.21</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="49">
         <v>7</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1721,7 +1786,7 @@
       <c r="A55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="51">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1776,85 +1841,85 @@
       <c r="A56" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="55">
+      <c r="B56" s="52">
         <v>0.5</v>
       </c>
-      <c r="C56" s="55">
+      <c r="C56" s="52">
         <v>0.5</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="52">
         <v>0.5</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="52">
         <v>0.6</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="52">
         <v>0.6</v>
       </c>
-      <c r="G56" s="55">
+      <c r="G56" s="52">
         <v>0.6</v>
       </c>
-      <c r="H56" s="55">
+      <c r="H56" s="52">
         <v>0.6</v>
       </c>
-      <c r="I56" s="55">
+      <c r="I56" s="52">
         <v>0.7</v>
       </c>
-      <c r="J56" s="55">
+      <c r="J56" s="52">
         <v>0.7</v>
       </c>
-      <c r="K56" s="55">
+      <c r="K56" s="52">
         <v>0.7</v>
       </c>
-      <c r="L56" s="55">
+      <c r="L56" s="52">
         <v>0.8</v>
       </c>
-      <c r="M56" s="55">
+      <c r="M56" s="52">
         <v>1</v>
       </c>
-      <c r="N56" s="30"/>
+      <c r="N56" s="53"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="53">
+      <c r="B57" s="54">
         <v>2</v>
       </c>
-      <c r="C57" s="53">
+      <c r="C57" s="54">
         <v>2</v>
       </c>
-      <c r="D57" s="53">
+      <c r="D57" s="54">
         <v>2</v>
       </c>
-      <c r="E57" s="53">
+      <c r="E57" s="54">
         <v>3</v>
       </c>
-      <c r="F57" s="53">
+      <c r="F57" s="54">
         <v>4</v>
       </c>
-      <c r="G57" s="53">
+      <c r="G57" s="54">
         <v>4</v>
       </c>
-      <c r="H57" s="53">
+      <c r="H57" s="54">
         <v>4</v>
       </c>
-      <c r="I57" s="53">
+      <c r="I57" s="54">
         <v>4</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="54">
         <v>4</v>
       </c>
-      <c r="K57" s="53">
+      <c r="K57" s="54">
         <v>4</v>
       </c>
-      <c r="L57" s="53">
+      <c r="L57" s="54">
         <v>5</v>
       </c>
-      <c r="M57" s="53">
+      <c r="M57" s="54">
         <v>6</v>
       </c>
-      <c r="N57" s="48" t="s">
+      <c r="N57" s="55" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1862,55 +1927,55 @@
       <c r="A58" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="52">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.35</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="52">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.35</v>
       </c>
-      <c r="D58" s="55">
+      <c r="D58" s="52">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.35</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="52">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.25</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="52">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="G58" s="55">
+      <c r="G58" s="52">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="H58" s="55">
+      <c r="H58" s="52">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="I58" s="55">
+      <c r="I58" s="52">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="55">
+      <c r="J58" s="52">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="K58" s="55">
+      <c r="K58" s="52">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.2</v>
       </c>
-      <c r="L58" s="55">
+      <c r="L58" s="52">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.1</v>
       </c>
-      <c r="M58" s="55">
+      <c r="M58" s="52">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
         <v>0.05</v>
       </c>
-      <c r="N58" s="48" t="s">
+      <c r="N58" s="55" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1918,43 +1983,43 @@
       <c r="A59" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="55">
-        <v>0</v>
-      </c>
-      <c r="C59" s="55">
+      <c r="B59" s="52">
+        <v>0</v>
+      </c>
+      <c r="C59" s="52">
         <v>0.1</v>
       </c>
-      <c r="D59" s="55">
+      <c r="D59" s="52">
         <v>0.1</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="52">
         <v>0.1</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="52">
         <v>0.1</v>
       </c>
-      <c r="G59" s="55">
+      <c r="G59" s="52">
         <v>0.2</v>
       </c>
-      <c r="H59" s="55">
+      <c r="H59" s="52">
         <v>0.2</v>
       </c>
-      <c r="I59" s="55">
+      <c r="I59" s="52">
         <v>0.3</v>
       </c>
-      <c r="J59" s="55">
+      <c r="J59" s="52">
         <v>0.3</v>
       </c>
-      <c r="K59" s="55">
+      <c r="K59" s="52">
         <v>0.3</v>
       </c>
-      <c r="L59" s="55">
+      <c r="L59" s="52">
         <v>0.4</v>
       </c>
-      <c r="M59" s="55">
+      <c r="M59" s="52">
         <v>0.5</v>
       </c>
-      <c r="N59" s="48" t="s">
+      <c r="N59" s="55" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1962,37 +2027,37 @@
       <c r="A60" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="48"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="55"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="48" t="s">
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2000,19 +2065,19 @@
       <c r="A62" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="48" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2020,19 +2085,19 @@
       <c r="A63" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="48" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2040,19 +2105,19 @@
       <c r="A64" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="48" t="s">
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="55" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2060,75 +2125,75 @@
       <c r="A65" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="48" t="s">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="55" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <f>B63+B64+B65</f>
         <v>0</v>
       </c>
-      <c r="C66" s="21">
+      <c r="C66" s="20">
         <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
         <v>0</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L66" s="21">
+      <c r="L66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M66" s="21">
+      <c r="M66" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N66" s="21"/>
+      <c r="N66" s="20"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
@@ -2220,148 +2285,148 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="29"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="60"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="29"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="60"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="29"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="60"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="29"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="60"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="58">
+      <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="58">
+      <c r="C75" s="24">
         <f t="shared" ref="C75:M75" si="2">SUM(C71:C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="58">
+      <c r="D75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F75" s="58">
+      <c r="F75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75" s="58">
+      <c r="G75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H75" s="58">
+      <c r="H75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75" s="58">
+      <c r="I75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="58">
+      <c r="J75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K75" s="58">
+      <c r="K75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L75" s="58">
+      <c r="L75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M75" s="58">
+      <c r="M75" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N75" s="21"/>
+      <c r="N75" s="20"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="48" t="s">
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2441,251 +2506,251 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="48" t="s">
+      <c r="B80" s="59"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="55" t="s">
         <v>114</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="48" t="s">
+      <c r="B81" s="59"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="55" t="s">
         <v>114</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="48" t="s">
+      <c r="B82" s="59"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="55" t="s">
         <v>114</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="48" t="s">
+      <c r="B83" s="59"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="55" t="s">
         <v>114</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="58">
+      <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
         <v>0</v>
       </c>
-      <c r="C84" s="58">
+      <c r="C84" s="24">
         <f t="shared" ref="C84:M84" si="3">SUM(C80:C83)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="58">
+      <c r="D84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="58">
+      <c r="E84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F84" s="58">
+      <c r="F84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G84" s="58">
+      <c r="G84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I84" s="58">
+      <c r="I84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J84" s="58">
+      <c r="J84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K84" s="58">
+      <c r="K84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L84" s="58">
+      <c r="L84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M84" s="58">
+      <c r="M84" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N84" s="21"/>
+      <c r="N84" s="20"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="29"/>
-    </row>
-    <row r="86" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="60"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="29"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="60"/>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="57"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="57"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="57"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="29"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="60"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="29"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="60"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
-      <c r="L89" s="57"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="29"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="59"/>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="59"/>
+      <c r="N89" s="60"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="57"/>
-      <c r="I90" s="57"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="57"/>
-      <c r="L90" s="57"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="29"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="60"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
@@ -2701,48 +2766,12 @@
       <c r="L91" s="6"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="27"/>
+      <c r="A98" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2Otz3bK7/G61JqKDFCxF+3XYx/82ahsdKVgeWax4Q5ttOplclDt0WU2Zsm/gYpCwMoDjCTZx2kUlAwxCF+T8UQ==" saltValue="D1xBYV6tZcRfmXYvePYy+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="46">
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -2750,10 +2779,48 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B9" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B11" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
@@ -2805,7 +2872,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B1">

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60C661-66BB-4F51-BDFE-BD685732EE48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF2A62F-F74E-4183-9B1C-A2BF0FD68320}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58260" yWindow="8190" windowWidth="13830" windowHeight="7170" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
   <si>
     <t>Branded</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Default value is .6%</t>
   </si>
   <si>
-    <t>Default value is 2/171.2</t>
-  </si>
-  <si>
     <t>Default is 60</t>
   </si>
   <si>
@@ -484,6 +481,30 @@
   </si>
   <si>
     <t>password: Vertice</t>
+  </si>
+  <si>
+    <t>Default value is 2/171.3</t>
+  </si>
+  <si>
+    <t>Input purchase of PPE as a negative number</t>
+  </si>
+  <si>
+    <t>Input positive proceeds as postive numbers</t>
+  </si>
+  <si>
+    <t>Input benefits as positive number</t>
+  </si>
+  <si>
+    <t>Input sales as postive and expenses as negative numbers</t>
+  </si>
+  <si>
+    <t>This is similar to depreciation. If it would be a liability, input it as a positive number</t>
+  </si>
+  <si>
+    <t>Input asset as a positive number</t>
+  </si>
+  <si>
+    <t>Input a positive number if it would increase FCF</t>
   </si>
 </sst>
 </file>
@@ -730,63 +751,119 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -798,60 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1172,7 +1195,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1231,202 +1254,204 @@
         <v>49</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="J4" s="30" t="s">
+      <c r="C4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="J4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="J5" s="29" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="J5" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="J6" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="B6" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="J6" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="J7" s="28" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="J7" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="J8" s="25" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="J8" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="J9" s="31" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="J9" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="38">
-        <v>5</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="26">
         <v>2020</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="J13" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="J13" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="27">
         <v>1</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1445,66 +1470,68 @@
         <v>52</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="41">
-        <v>0</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
+      <c r="B22" s="28">
+        <v>0</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="41">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="41">
-        <v>0</v>
-      </c>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="41">
-        <v>0</v>
-      </c>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1513,12 +1540,12 @@
       </c>
       <c r="B26" s="20">
         <f>SUM(B24:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
+        <v>0.6</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1533,123 +1560,125 @@
         <v>50</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="C30" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="46">
-        <v>0</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="B31" s="29">
+        <v>0</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="46">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="B32" s="29">
+        <v>0</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="46">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="B33" s="29">
+        <v>0</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="46">
-        <v>0</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="B34" s="29">
+        <v>0</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="46">
-        <v>0</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="29">
+        <v>0</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="46">
-        <v>0</v>
-      </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="B36" s="29">
+        <v>0</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="41">
-        <v>0</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="B37" s="28">
+        <v>0</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="48">
-        <f>2/171.2</f>
-        <v>1.1682242990654207E-2</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
+      <c r="B39" s="31">
+        <f>2/171.3</f>
+        <v>1.1675423234092236E-2</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1662,104 +1691,108 @@
         <v>86</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+      <c r="C42" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="32">
         <v>60</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+      <c r="C43" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="32">
         <v>60</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="C44" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="32">
         <v>30</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
+      <c r="C45" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
+      <c r="C48" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49" s="33">
         <v>0.15</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50" s="33">
         <v>0.21</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="32">
         <v>7</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1786,7 +1819,7 @@
       <c r="A55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="34">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1841,85 +1874,85 @@
       <c r="A56" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="C56" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="F56" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="G56" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="H56" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="I56" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="J56" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="K56" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="L56" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="M56" s="52">
+      <c r="B56" s="35">
         <v>1</v>
       </c>
-      <c r="N56" s="53"/>
+      <c r="C56" s="35">
+        <v>1</v>
+      </c>
+      <c r="D56" s="35">
+        <v>1</v>
+      </c>
+      <c r="E56" s="35">
+        <v>1</v>
+      </c>
+      <c r="F56" s="35">
+        <v>1</v>
+      </c>
+      <c r="G56" s="35">
+        <v>1</v>
+      </c>
+      <c r="H56" s="35">
+        <v>1</v>
+      </c>
+      <c r="I56" s="35">
+        <v>1</v>
+      </c>
+      <c r="J56" s="35">
+        <v>1</v>
+      </c>
+      <c r="K56" s="35">
+        <v>1</v>
+      </c>
+      <c r="L56" s="35">
+        <v>1</v>
+      </c>
+      <c r="M56" s="35">
+        <v>1</v>
+      </c>
+      <c r="N56" s="42"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="54">
-        <v>2</v>
-      </c>
-      <c r="C57" s="54">
-        <v>2</v>
-      </c>
-      <c r="D57" s="54">
-        <v>2</v>
-      </c>
-      <c r="E57" s="54">
-        <v>3</v>
-      </c>
-      <c r="F57" s="54">
-        <v>4</v>
-      </c>
-      <c r="G57" s="54">
-        <v>4</v>
-      </c>
-      <c r="H57" s="54">
-        <v>4</v>
-      </c>
-      <c r="I57" s="54">
-        <v>4</v>
-      </c>
-      <c r="J57" s="54">
-        <v>4</v>
-      </c>
-      <c r="K57" s="54">
-        <v>4</v>
-      </c>
-      <c r="L57" s="54">
+      <c r="B57" s="36">
+        <v>0</v>
+      </c>
+      <c r="C57" s="36">
         <v>5</v>
       </c>
-      <c r="M57" s="54">
+      <c r="D57" s="36">
         <v>6</v>
       </c>
-      <c r="N57" s="55" t="s">
+      <c r="E57" s="36">
+        <v>6</v>
+      </c>
+      <c r="F57" s="36">
+        <v>7</v>
+      </c>
+      <c r="G57" s="36">
+        <v>7</v>
+      </c>
+      <c r="H57" s="36">
+        <v>7</v>
+      </c>
+      <c r="I57" s="36">
+        <v>7</v>
+      </c>
+      <c r="J57" s="36">
+        <v>7</v>
+      </c>
+      <c r="K57" s="36">
+        <v>7</v>
+      </c>
+      <c r="L57" s="36">
+        <v>7</v>
+      </c>
+      <c r="M57" s="36">
+        <v>7</v>
+      </c>
+      <c r="N57" s="43" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1927,99 +1960,99 @@
       <c r="A58" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="52">
-        <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.35</v>
-      </c>
-      <c r="C58" s="52">
-        <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.35</v>
-      </c>
-      <c r="D58" s="52">
-        <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.35</v>
-      </c>
-      <c r="E58" s="52">
-        <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="52">
-        <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
+      <c r="B58" s="35">
+        <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="35">
+        <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.2</v>
       </c>
-      <c r="G58" s="52">
-        <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.2</v>
-      </c>
-      <c r="H58" s="52">
-        <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.2</v>
-      </c>
-      <c r="I58" s="52">
-        <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.2</v>
-      </c>
-      <c r="J58" s="52">
-        <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.2</v>
-      </c>
-      <c r="K58" s="52">
-        <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.2</v>
-      </c>
-      <c r="L58" s="52">
-        <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
+      <c r="D58" s="35">
+        <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.1</v>
       </c>
-      <c r="M58" s="52">
-        <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",2,IF($B$7="Clinic",4,6)))</f>
-        <v>0.05</v>
-      </c>
-      <c r="N58" s="55" t="s">
-        <v>146</v>
+      <c r="E58" s="35">
+        <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="F58" s="35">
+        <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="G58" s="35">
+        <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="H58" s="35">
+        <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="I58" s="35">
+        <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="J58" s="35">
+        <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="K58" s="35">
+        <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="L58" s="35">
+        <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="M58" s="35">
+        <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="N58" s="43" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="52">
-        <v>0</v>
-      </c>
-      <c r="C59" s="52">
+      <c r="B59" s="35">
+        <v>0</v>
+      </c>
+      <c r="C59" s="35">
         <v>0.1</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="35">
         <v>0.1</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="35">
         <v>0.1</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="35">
         <v>0.1</v>
       </c>
-      <c r="G59" s="52">
+      <c r="G59" s="35">
         <v>0.2</v>
       </c>
-      <c r="H59" s="52">
+      <c r="H59" s="35">
         <v>0.2</v>
       </c>
-      <c r="I59" s="52">
+      <c r="I59" s="35">
         <v>0.3</v>
       </c>
-      <c r="J59" s="52">
+      <c r="J59" s="35">
         <v>0.3</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="35">
         <v>0.3</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="35">
         <v>0.4</v>
       </c>
-      <c r="M59" s="52">
+      <c r="M59" s="35">
         <v>0.5</v>
       </c>
-      <c r="N59" s="55" t="s">
+      <c r="N59" s="43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2027,37 +2060,37 @@
       <c r="A60" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="55"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="43"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="55" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2065,19 +2098,19 @@
       <c r="A62" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="55" t="s">
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2085,19 +2118,21 @@
       <c r="A63" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="55" t="s">
+      <c r="B63" s="38">
+        <v>-0.15</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2105,39 +2140,39 @@
       <c r="A64" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="55" t="s">
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="43" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2147,7 +2182,7 @@
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
@@ -2285,76 +2320,84 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="58" t="s">
+      <c r="A71" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="60"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="43" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="60"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="43" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="60"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="43" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="58" t="s">
+      <c r="A74" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="60"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="43" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
@@ -2408,25 +2451,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N75" s="20"/>
+      <c r="N75" s="44"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="55" t="s">
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2506,85 +2549,85 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="55" t="s">
+      <c r="B80" s="40"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="43" t="s">
         <v>114</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="58" t="s">
+      <c r="A81" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="59"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="55" t="s">
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="43" t="s">
         <v>114</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="59"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="55" t="s">
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="43" t="s">
         <v>114</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="58" t="s">
+      <c r="A83" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="59"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="55" t="s">
+      <c r="B83" s="40"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="43" t="s">
         <v>114</v>
       </c>
       <c r="O83" s="6"/>
@@ -2641,116 +2684,128 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N84" s="20"/>
+      <c r="N84" s="44"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="60"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="43" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="60"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="43" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="60"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="60"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="43" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="59"/>
-      <c r="I89" s="59"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="59"/>
-      <c r="N89" s="60"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="43" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="60"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="43" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
@@ -2769,8 +2824,38 @@
       <c r="A98" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Otz3bK7/G61JqKDFCxF+3XYx/82ahsdKVgeWax4Q5ttOplclDt0WU2Zsm/gYpCwMoDjCTZx2kUlAwxCF+T8UQ==" saltValue="D1xBYV6tZcRfmXYvePYy+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rorGgu7mYmV9IvZu5WAuUaRl4mi3CW+gAxzezDAHdgLKBGkyutXI737zH1DWBDupgrZ2ynO9nOVPO3vJgkCpOw==" saltValue="JD2WR39mHYpN1tCZ4bKoww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C4:F4"/>
@@ -2784,39 +2869,9 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J6:L6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
@@ -2864,7 +2919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55AFB7-2CA7-4AB2-BBC4-4165D73DCAB2}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3147,7 +3204,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF2A62F-F74E-4183-9B1C-A2BF0FD68320}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21710A50-959E-454D-B917-FA243DCFA31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="38850" yWindow="9960" windowWidth="13830" windowHeight="7170" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
   <si>
-    <t>Branded</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
-    <t>Branded/Generic:</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>Exit Multiple:</t>
   </si>
   <si>
-    <t xml:space="preserve">Branded Name: </t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -505,6 +496,15 @@
   </si>
   <si>
     <t>Input a positive number if it would increase FCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand Name: </t>
+  </si>
+  <si>
+    <t>Brand/Generic:</t>
+  </si>
+  <si>
+    <t>Brand</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C25" sqref="C25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1212,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1251,75 +1251,75 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="J4" s="55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="55"/>
       <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="J5" s="53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="J6" s="59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
       <c r="J7" s="52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="46"/>
@@ -1327,14 +1327,14 @@
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="J8" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="46"/>
@@ -1342,14 +1342,14 @@
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="J9" s="56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K9" s="57"/>
       <c r="L9" s="58"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="46"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="26">
         <v>1</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="26">
         <v>2020</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="46"/>
@@ -1391,14 +1391,14 @@
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="J13" s="45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K13" s="45"/>
       <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="46"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="46"/>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="46"/>
@@ -1430,13 +1430,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" s="27">
         <v>1</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="46"/>
@@ -1467,11 +1467,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="28">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="28">
         <v>0</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="28">
         <v>0.5</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" s="28">
         <v>0.1</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="20">
         <f>SUM(B24:B25)</f>
@@ -1557,11 +1557,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="29">
         <v>0</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="29">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="29">
         <v>0</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="29">
         <v>0</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="28">
         <v>0</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
@@ -1667,14 +1667,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" s="31">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
@@ -1688,11 +1688,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="47"/>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="32">
         <v>60</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="32">
         <v>60</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="32">
         <v>30</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
@@ -1742,11 +1742,11 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="47"/>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="33">
         <v>0.15</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="33">
         <v>0.21</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="32">
         <v>7</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="34">
         <v>2019</v>
@@ -1867,12 +1867,12 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B56" s="35">
         <v>1</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="36">
         <v>0</v>
@@ -1953,12 +1953,12 @@
         <v>7</v>
       </c>
       <c r="N57" s="43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B58" s="35">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -2009,12 +2009,12 @@
         <v>0.08</v>
       </c>
       <c r="N58" s="43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B59" s="35">
         <v>0</v>
@@ -2053,12 +2053,12 @@
         <v>0.5</v>
       </c>
       <c r="N59" s="43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -2091,12 +2091,12 @@
       <c r="L61" s="38"/>
       <c r="M61" s="38"/>
       <c r="N61" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -2111,12 +2111,12 @@
       <c r="L62" s="38"/>
       <c r="M62" s="38"/>
       <c r="N62" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B63" s="38">
         <v>-0.15</v>
@@ -2133,12 +2133,12 @@
       <c r="L63" s="38"/>
       <c r="M63" s="38"/>
       <c r="N63" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -2153,12 +2153,12 @@
       <c r="L64" s="38"/>
       <c r="M64" s="38"/>
       <c r="N64" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -2173,12 +2173,12 @@
       <c r="L65" s="38"/>
       <c r="M65" s="38"/>
       <c r="N65" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2316,12 +2316,12 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
@@ -2336,12 +2336,12 @@
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
       <c r="N71" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -2356,12 +2356,12 @@
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
       <c r="N72" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -2376,12 +2376,12 @@
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
       <c r="N73" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
@@ -2396,12 +2396,12 @@
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
       <c r="N74" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -2470,7 +2470,7 @@
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
       <c r="N76" s="43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2488,7 +2488,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2545,12 +2545,12 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B80" s="40"/>
       <c r="C80" s="41"/>
@@ -2565,13 +2565,13 @@
       <c r="L80" s="41"/>
       <c r="M80" s="41"/>
       <c r="N80" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B81" s="40"/>
       <c r="C81" s="41"/>
@@ -2586,13 +2586,13 @@
       <c r="L81" s="41"/>
       <c r="M81" s="41"/>
       <c r="N81" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B82" s="40"/>
       <c r="C82" s="41"/>
@@ -2607,13 +2607,13 @@
       <c r="L82" s="41"/>
       <c r="M82" s="41"/>
       <c r="N82" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B83" s="40"/>
       <c r="C83" s="41"/>
@@ -2628,13 +2628,13 @@
       <c r="L83" s="41"/>
       <c r="M83" s="41"/>
       <c r="N83" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="40"/>
       <c r="C85" s="40"/>
@@ -2704,12 +2704,12 @@
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
       <c r="N85" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
@@ -2724,12 +2724,12 @@
       <c r="L86" s="40"/>
       <c r="M86" s="40"/>
       <c r="N86" s="43" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
@@ -2744,12 +2744,12 @@
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
       <c r="N87" s="43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -2764,12 +2764,12 @@
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
       <c r="N88" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="40"/>
       <c r="C89" s="40"/>
@@ -2784,12 +2784,12 @@
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
       <c r="N89" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="40"/>
       <c r="C90" s="40"/>
@@ -2804,7 +2804,7 @@
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
       <c r="A98" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rorGgu7mYmV9IvZu5WAuUaRl4mi3CW+gAxzezDAHdgLKBGkyutXI737zH1DWBDupgrZ2ynO9nOVPO3vJgkCpOw==" saltValue="JD2WR39mHYpN1tCZ4bKoww==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OZw+N/NlduiKmMvqWA3wkLhKcuX7x8fukM++8MJ5VvUpYBEKyxPWTra1GdKCOIlNnK+9UiIGKTvsLyrJnfE5Ig==" saltValue="Mzb2MDQVnvBGMGotssM08g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
@@ -2930,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3204,7 +3204,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3216,60 +3216,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3292,182 +3292,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\PycharmProjects\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21710A50-959E-454D-B917-FA243DCFA31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC540EC-96F6-4EAC-B7A1-F9C61BDB10D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38850" yWindow="9960" windowWidth="13830" windowHeight="7170" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>Generic</t>
   </si>
@@ -466,12 +466,6 @@
   </si>
   <si>
     <t>R&amp;D Infrastructure Cost ($mil):</t>
-  </si>
-  <si>
-    <t>Is this needed?</t>
-  </si>
-  <si>
-    <t>password: Vertice</t>
   </si>
   <si>
     <t>Default value is 2/171.3</t>
@@ -703,7 +697,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -788,12 +782,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -816,54 +804,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -874,6 +840,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1194,23 +1181,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="6" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="6" customWidth="1"/>
-    <col min="8" max="13" width="8.44140625" customWidth="1"/>
-    <col min="14" max="14" width="49.33203125" customWidth="1"/>
+    <col min="3" max="6" width="8.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="6" customWidth="1"/>
+    <col min="8" max="13" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="49.36328125" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" hidden="1"/>
+    <col min="16" max="16384" width="8.90625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1215,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -1246,215 +1233,205 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="J4" s="55" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="J4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="48" t="s">
-        <v>144</v>
-      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="J6" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="J6" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="J7" s="52" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="J7" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="J8" s="49" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="J8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="J9" s="56" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="J9" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="26">
-        <v>2020</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="J13" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="27">
-        <v>1</v>
-      </c>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1462,210 +1439,202 @@
       <c r="F19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="28">
-        <v>0</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="28">
-        <v>0</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="20">
         <f>SUM(B24:B25)</f>
-        <v>0.6</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="29">
         <v>0</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B32" s="29">
         <v>0</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="29">
         <v>0</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B34" s="29">
         <v>0</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="29">
         <v>0</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="29">
         <v>0</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="28">
         <v>0</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>76</v>
       </c>
@@ -1673,131 +1642,131 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="32">
         <v>60</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="32">
         <v>60</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="32">
         <v>30</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="33">
         <v>0.15</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="33">
         <v>0.21</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="32">
         <v>7</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
         <v>86</v>
       </c>
@@ -1815,7 +1784,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>67</v>
       </c>
@@ -1870,93 +1839,45 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="35">
-        <v>1</v>
-      </c>
-      <c r="C56" s="35">
-        <v>1</v>
-      </c>
-      <c r="D56" s="35">
-        <v>1</v>
-      </c>
-      <c r="E56" s="35">
-        <v>1</v>
-      </c>
-      <c r="F56" s="35">
-        <v>1</v>
-      </c>
-      <c r="G56" s="35">
-        <v>1</v>
-      </c>
-      <c r="H56" s="35">
-        <v>1</v>
-      </c>
-      <c r="I56" s="35">
-        <v>1</v>
-      </c>
-      <c r="J56" s="35">
-        <v>1</v>
-      </c>
-      <c r="K56" s="35">
-        <v>1</v>
-      </c>
-      <c r="L56" s="35">
-        <v>1</v>
-      </c>
-      <c r="M56" s="35">
-        <v>1</v>
-      </c>
-      <c r="N56" s="42"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="40"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="36">
-        <v>0</v>
-      </c>
-      <c r="C57" s="36">
-        <v>5</v>
-      </c>
-      <c r="D57" s="36">
-        <v>6</v>
-      </c>
-      <c r="E57" s="36">
-        <v>6</v>
-      </c>
-      <c r="F57" s="36">
-        <v>7</v>
-      </c>
-      <c r="G57" s="36">
-        <v>7</v>
-      </c>
-      <c r="H57" s="36">
-        <v>7</v>
-      </c>
-      <c r="I57" s="36">
-        <v>7</v>
-      </c>
-      <c r="J57" s="36">
-        <v>7</v>
-      </c>
-      <c r="K57" s="36">
-        <v>7</v>
-      </c>
-      <c r="L57" s="36">
-        <v>7</v>
-      </c>
-      <c r="M57" s="36">
-        <v>7</v>
-      </c>
-      <c r="N57" s="43" t="s">
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>101</v>
       </c>
@@ -1966,223 +1887,197 @@
       </c>
       <c r="C58" s="35">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D58" s="35">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="35">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="35">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G58" s="35">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H58" s="35">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I58" s="35">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J58" s="35">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K58" s="35">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L58" s="35">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M58" s="35">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.08</v>
-      </c>
-      <c r="N58" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="35">
-        <v>0</v>
-      </c>
-      <c r="C59" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="F59" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="G59" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="H59" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="I59" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="J59" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="K59" s="35">
-        <v>0.3</v>
-      </c>
-      <c r="L59" s="35">
-        <v>0.4</v>
-      </c>
-      <c r="M59" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="N59" s="43" t="s">
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="43"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="41"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="43" t="s">
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="43" t="s">
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="60"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="38">
-        <v>-0.15</v>
-      </c>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="43" t="s">
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="43" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="43" t="s">
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
@@ -2230,7 +2125,7 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2244,7 +2139,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2257,7 +2152,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
         <v>128</v>
       </c>
@@ -2275,7 +2170,7 @@
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>87</v>
       </c>
@@ -2319,87 +2214,87 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A71" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
         <v>110</v>
       </c>
@@ -2451,29 +2346,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N75" s="44"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N75" s="42"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="43" t="s">
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2486,7 +2381,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="14" t="s">
         <v>130</v>
       </c>
@@ -2504,7 +2399,7 @@
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>87</v>
       </c>
@@ -2548,91 +2443,91 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="40"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="43" t="s">
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="41" t="s">
         <v>111</v>
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="43" t="s">
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="41" t="s">
         <v>111</v>
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="43" t="s">
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="41" t="s">
         <v>111</v>
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="40"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="43" t="s">
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="41" t="s">
         <v>111</v>
       </c>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>112</v>
       </c>
@@ -2684,130 +2579,130 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N84" s="44"/>
+      <c r="N84" s="42"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="40"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
-      <c r="N85" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="38"/>
+      <c r="N85" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="M86" s="38"/>
+      <c r="N86" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2820,12 +2715,41 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OZw+N/NlduiKmMvqWA3wkLhKcuX7x8fukM++8MJ5VvUpYBEKyxPWTra1GdKCOIlNnK+9UiIGKTvsLyrJnfE5Ig==" saltValue="Mzb2MDQVnvBGMGotssM08g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2842,36 +2766,6 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="4">
@@ -2923,12 +2817,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>119</v>
       </c>
@@ -2966,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3004,7 +2898,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -3042,7 +2936,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3080,7 +2974,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3118,7 +3012,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3156,7 +3050,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3207,19 +3101,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -3228,7 +3122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3256,7 +3150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3267,7 +3161,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3285,187 +3179,187 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>24</v>
       </c>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgow\PycharmProjects\Vertice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC540EC-96F6-4EAC-B7A1-F9C61BDB10D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281817C8-6054-4CC1-9102-B19675DC5860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="35520" yWindow="6645" windowWidth="17280" windowHeight="8970" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -505,10 +505,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -575,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,12 +616,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +692,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -748,16 +743,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -770,97 +762,104 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -869,7 +868,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1179,25 +1193,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="6" customWidth="1"/>
-    <col min="8" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="14" width="49.36328125" customWidth="1"/>
+    <col min="3" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="6" customWidth="1"/>
+    <col min="8" max="13" width="8.44140625" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" hidden="1"/>
+    <col min="16" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1215,7 +1229,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -1233,205 +1247,208 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="J4" s="43" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="J4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="J5" s="58" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="J5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="J6" s="47" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="J6" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="J7" s="57" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="J7" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="J8" s="54" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="J8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="J9" s="44" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="J9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1439,334 +1456,346 @@
       <c r="F19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="B22" s="28">
+        <v>0</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="58">
         <f>SUM(B24:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+        <v>0.37</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="29">
-        <v>0</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="62">
+        <v>0</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="29">
-        <v>0</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="62">
+        <v>0</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="29">
-        <v>0</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="62">
+        <v>0</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="29">
-        <v>0</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="62">
+        <v>0</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="29">
-        <v>0</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="62">
+        <v>0</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="29">
-        <v>0</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="62">
+        <v>0</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="28">
-        <v>0</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="59">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="31">
         <v>60</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="31">
         <v>60</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="31">
         <v>30</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <v>0.15</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>0.21</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="60">
         <v>7</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>86</v>
       </c>
@@ -1784,11 +1813,11 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B55" s="61">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1839,121 +1868,193 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="40"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B56" s="33">
+        <v>1</v>
+      </c>
+      <c r="C56" s="33">
+        <v>1</v>
+      </c>
+      <c r="D56" s="33">
+        <v>1</v>
+      </c>
+      <c r="E56" s="33">
+        <v>1</v>
+      </c>
+      <c r="F56" s="33">
+        <v>1</v>
+      </c>
+      <c r="G56" s="33">
+        <v>1</v>
+      </c>
+      <c r="H56" s="33">
+        <v>1</v>
+      </c>
+      <c r="I56" s="33">
+        <v>1</v>
+      </c>
+      <c r="J56" s="33">
+        <v>1</v>
+      </c>
+      <c r="K56" s="33">
+        <v>1</v>
+      </c>
+      <c r="L56" s="33">
+        <v>1</v>
+      </c>
+      <c r="M56" s="33">
+        <v>1</v>
+      </c>
+      <c r="N56" s="38"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="41" t="s">
+      <c r="B57" s="34">
+        <v>2</v>
+      </c>
+      <c r="C57" s="34">
+        <v>2</v>
+      </c>
+      <c r="D57" s="34">
+        <v>2</v>
+      </c>
+      <c r="E57" s="34">
+        <v>2</v>
+      </c>
+      <c r="F57" s="34">
+        <v>2</v>
+      </c>
+      <c r="G57" s="34">
+        <v>2</v>
+      </c>
+      <c r="H57" s="34">
+        <v>2</v>
+      </c>
+      <c r="I57" s="34">
+        <v>2</v>
+      </c>
+      <c r="J57" s="34">
+        <v>2</v>
+      </c>
+      <c r="K57" s="34">
+        <v>3</v>
+      </c>
+      <c r="L57" s="34">
+        <v>3</v>
+      </c>
+      <c r="M57" s="34">
+        <v>3</v>
+      </c>
+      <c r="N57" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="33">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="C58" s="33">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="33">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="33">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="33">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="33">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="33">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="33">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="33">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="33">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="L58" s="33">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="M58" s="33">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="41" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="N58" s="39" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="41" t="s">
+      <c r="B59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="C59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="D59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="L59" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="M59" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="N59" s="39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>77</v>
       </c>
@@ -1969,115 +2070,117 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
-      <c r="N60" s="41"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N60" s="39"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="41" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="41" t="s">
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="41" t="s">
+      <c r="B63" s="41">
+        <v>-0.5</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="41" t="s">
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="41" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
@@ -2125,7 +2228,7 @@
       </c>
       <c r="N66" s="20"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2139,7 +2242,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2152,7 +2255,7 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>128</v>
       </c>
@@ -2170,7 +2273,7 @@
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>87</v>
       </c>
@@ -2214,87 +2317,87 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="37" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="41" t="s">
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="37" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="41" t="s">
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="41" t="s">
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="37" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="41" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="39" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>110</v>
       </c>
@@ -2346,29 +2449,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N75" s="42"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N75" s="40"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="41" t="s">
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2381,7 +2484,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>130</v>
       </c>
@@ -2399,7 +2502,7 @@
       <c r="M78" s="15"/>
       <c r="N78" s="15"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>87</v>
       </c>
@@ -2443,91 +2546,91 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="37" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="41" t="s">
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="37" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="41" t="s">
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="37" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="41" t="s">
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="37" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="41" t="s">
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="39" t="s">
         <v>111</v>
       </c>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
         <v>112</v>
       </c>
@@ -2579,130 +2682,130 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N84" s="42"/>
+      <c r="N84" s="40"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="41" t="s">
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="41" t="s">
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="39" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="41" t="s">
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="41" t="s">
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="39" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="41" t="s">
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="41" t="s">
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="39" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2715,41 +2818,20 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
     </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="25+t6wUGVt9m4rxhfAHjhjmom9ljHegatCGP70g87yxtn9yJOtoojW8tT5EGimKPgdn1C+aUb7UK/bp2uoYGJA==" saltValue="TTVFt9czq9iew2+T6zbL/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="45">
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2766,10 +2848,49 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B11" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+  <conditionalFormatting sqref="B24:B25">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B6="Brand"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6="Brand"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
@@ -2781,9 +2902,16 @@
       <formula1>2018</formula1>
       <formula2>2040</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{BFDA9F99-B286-4061-AC1B-A4D018A25FDB}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B43:B45" xr:uid="{C14FE8E3-FE0A-451E-964F-AACBAA117C4A}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,13 +2919,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
             <xm:f>'Selection Control'!$B$1:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
           <x14:formula1>
             <xm:f>'Selection Control'!$C$1:$C$4</xm:f>
           </x14:formula1>
@@ -2817,12 +2945,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>119</v>
       </c>
@@ -2860,7 +2988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2898,7 +3026,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -2936,7 +3064,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2974,7 +3102,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3012,7 +3140,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -3050,7 +3178,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -3101,14 +3229,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3122,7 +3250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3136,7 +3264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3150,7 +3278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3161,7 +3289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3179,187 +3307,187 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281817C8-6054-4CC1-9102-B19675DC5860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97782381-759F-4CE3-9D62-B98529B4F99E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="6645" windowWidth="17280" windowHeight="8970" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
   <si>
     <t>Generic</t>
   </si>
@@ -54,9 +54,6 @@
     <t>EEE</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>Retail</t>
   </si>
   <si>
@@ -499,6 +496,15 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Internal/External:</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -692,7 +698,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -795,47 +801,46 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -848,18 +853,40 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1196,7 +1223,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C24" sqref="C24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1240,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1231,7 +1258,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1252,208 +1279,213 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="J4" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="C4" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="J4" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="J5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="J5" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="J6" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="J6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="J7" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="J7" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="J8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="J8" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="J9" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
+      <c r="A9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="J9" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="26">
-        <v>1</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+        <v>97</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B12" s="26">
-        <v>2019</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="B13" s="26">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="27">
-        <v>1</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+        <v>135</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1461,78 +1493,78 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="28">
         <v>0</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="28">
         <v>0</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="28">
         <v>0.25</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="28">
         <v>0.12</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="58">
+        <v>70</v>
+      </c>
+      <c r="B26" s="42">
         <f>SUM(B24:B25)</f>
         <v>0.37</v>
       </c>
@@ -1552,128 +1584,128 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="C30" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="62">
-        <v>0</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="B31" s="46">
+        <v>0</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="62">
-        <v>0</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+        <v>50</v>
+      </c>
+      <c r="B32" s="46">
+        <v>0</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="62">
-        <v>0</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="46">
+        <v>0</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="62">
-        <v>0</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+        <v>52</v>
+      </c>
+      <c r="B34" s="46">
+        <v>0</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="62">
-        <v>0</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+        <v>53</v>
+      </c>
+      <c r="B35" s="46">
+        <v>0</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="62">
-        <v>0</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+        <v>54</v>
+      </c>
+      <c r="B36" s="46">
+        <v>0</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="59">
-        <v>0</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+        <v>73</v>
+      </c>
+      <c r="B37" s="43">
+        <v>0</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="C38" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" s="30">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
+      <c r="C39" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1683,113 +1715,113 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
+      <c r="C42" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="31">
         <v>60</v>
       </c>
-      <c r="C43" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="C43" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="31">
         <v>60</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
+      <c r="C44" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="31">
         <v>30</v>
       </c>
-      <c r="C45" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="C45" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
+      <c r="C48" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="32">
         <v>0.15</v>
       </c>
-      <c r="C49" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="C49" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="32">
         <v>0.21</v>
       </c>
-      <c r="C50" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
+      <c r="C50" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="60">
+        <v>93</v>
+      </c>
+      <c r="B51" s="44">
         <v>7</v>
       </c>
-      <c r="C51" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
+      <c r="C51" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1797,7 +1829,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1815,9 +1847,9 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="61">
+        <v>66</v>
+      </c>
+      <c r="B55" s="45">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1865,12 +1897,12 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="33">
         <v>1</v>
@@ -1912,7 +1944,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="34">
         <v>2</v>
@@ -1951,12 +1983,12 @@
         <v>3</v>
       </c>
       <c r="N57" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="33">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -2007,12 +2039,12 @@
         <v>0.3</v>
       </c>
       <c r="N58" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" s="33">
         <v>0.25</v>
@@ -2051,12 +2083,12 @@
         <v>0.15</v>
       </c>
       <c r="N59" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -2074,7 +2106,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -2089,12 +2121,12 @@
       <c r="L61" s="41"/>
       <c r="M61" s="41"/>
       <c r="N61" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -2109,12 +2141,12 @@
       <c r="L62" s="41"/>
       <c r="M62" s="41"/>
       <c r="N62" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="41">
         <v>-0.5</v>
@@ -2131,12 +2163,12 @@
       <c r="L63" s="41"/>
       <c r="M63" s="41"/>
       <c r="N63" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -2151,12 +2183,12 @@
       <c r="L64" s="41"/>
       <c r="M64" s="41"/>
       <c r="N64" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -2171,12 +2203,12 @@
       <c r="L65" s="41"/>
       <c r="M65" s="41"/>
       <c r="N65" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
@@ -2257,7 +2289,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2275,7 +2307,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2314,12 +2346,12 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -2334,12 +2366,12 @@
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
       <c r="N71" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -2354,12 +2386,12 @@
       <c r="L72" s="36"/>
       <c r="M72" s="36"/>
       <c r="N72" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -2374,12 +2406,12 @@
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
       <c r="N73" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -2394,12 +2426,12 @@
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
       <c r="N74" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
@@ -2453,7 +2485,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -2468,7 +2500,7 @@
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
       <c r="N76" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2486,7 +2518,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2504,7 +2536,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2543,12 +2575,12 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="36"/>
       <c r="C80" s="37"/>
@@ -2563,13 +2595,13 @@
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
       <c r="N80" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
@@ -2584,13 +2616,13 @@
       <c r="L81" s="37"/>
       <c r="M81" s="37"/>
       <c r="N81" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" s="36"/>
       <c r="C82" s="37"/>
@@ -2605,13 +2637,13 @@
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
       <c r="N82" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
@@ -2626,13 +2658,13 @@
       <c r="L83" s="37"/>
       <c r="M83" s="37"/>
       <c r="N83" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
@@ -2687,7 +2719,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -2702,12 +2734,12 @@
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
       <c r="N85" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -2722,12 +2754,12 @@
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
       <c r="N86" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -2742,12 +2774,12 @@
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
       <c r="N87" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -2762,12 +2794,12 @@
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
       <c r="N88" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -2782,12 +2814,12 @@
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
       <c r="N89" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -2802,7 +2834,7 @@
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
       <c r="N90" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2830,8 +2862,37 @@
     <row r="99" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="25+t6wUGVt9m4rxhfAHjhjmom9ljHegatCGP70g87yxtn9yJOtoojW8tT5EGimKPgdn1C+aUb7UK/bp2uoYGJA==" saltValue="TTVFt9czq9iew2+T6zbL/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="45">
+  <mergeCells count="46">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2848,35 +2909,6 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B24:B25">
@@ -2890,23 +2922,23 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
       <formula1>2018</formula1>
       <formula2>2030</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{5AAFD038-1167-4616-998D-14EBD06205E4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{5AAFD038-1167-4616-998D-14EBD06205E4}">
       <formula1>2018</formula1>
       <formula2>2040</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{BFDA9F99-B286-4061-AC1B-A4D018A25FDB}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{BFDA9F99-B286-4061-AC1B-A4D018A25FDB}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
@@ -2918,16 +2950,22 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
-            <xm:f>'Selection Control'!$B$1:$B$3</xm:f>
+            <xm:f>'Selection Control'!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
           <x14:formula1>
-            <xm:f>'Selection Control'!$C$1:$C$4</xm:f>
+            <xm:f>'Selection Control'!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FFE5E844-A3B4-4476-BA45-3907687B65BD}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
@@ -2952,7 +2990,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2990,7 +3028,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3028,7 +3066,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3066,7 +3104,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3104,7 +3142,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3142,7 +3180,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3180,7 +3218,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3223,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E2E1D-1DA7-43EC-A894-786AF7D64AE1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3236,21 +3274,24 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3261,35 +3302,32 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3314,182 +3352,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97782381-759F-4CE3-9D62-B98529B4F99E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66EC9E-EFC9-448F-81A6-B55818023CDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>Generic</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>Use if External</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1223,7 +1233,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:F24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2102,7 +2112,9 @@
       <c r="K60" s="27"/>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
-      <c r="N60" s="39"/>
+      <c r="N60" s="39" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
@@ -2862,6 +2874,7 @@
     <row r="99" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hXRhqmt8oSgvQhcfGRLvfkt6A6uleQPe+AHKpno2A8b/+LQDz2UbDSbTXuKugmTZRb01UHjs8PleaLK2VJr0Mg==" saltValue="3mFlkajK2bFQHMIuB/fVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J7:L7"/>
@@ -2912,13 +2925,18 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B24:B25">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>B6="Brand"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>B6="Brand"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B60:M60">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>B6="Brand"</formula>
+      <formula>$B$9="Internal"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66EC9E-EFC9-448F-81A6-B55818023CDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4BC86-A5E3-4F12-9300-16A3C387B601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="3060" yWindow="1836" windowWidth="17280" windowHeight="8976" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -818,30 +818,66 @@
     <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,42 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1292,32 +1292,32 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="J4" s="47" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="J4" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="J5" s="62" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="J5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1326,15 +1326,15 @@
       <c r="B6" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="J6" s="51" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="J6" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1343,30 +1343,30 @@
       <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="J7" s="61" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="J7" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="J8" s="58" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="J8" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1375,35 +1375,35 @@
       <c r="B9" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="J9" s="48" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="J9" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1412,10 +1412,10 @@
       <c r="B12" s="26">
         <v>1</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1424,30 +1424,30 @@
       <c r="B13" s="26">
         <v>2019</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1455,10 +1455,10 @@
         <v>101</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,10 +1466,10 @@
         <v>65</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,12 +1479,12 @@
       <c r="B18" s="27">
         <v>1</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1492,10 +1492,10 @@
         <v>63</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1506,12 +1506,12 @@
         <v>49</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1521,10 +1521,10 @@
       <c r="B22" s="28">
         <v>0</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
       <c r="B23" s="28">
         <v>0</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1547,12 +1547,12 @@
       <c r="B24" s="28">
         <v>0.25</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,12 +1562,12 @@
       <c r="B25" s="28">
         <v>0.12</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1578,10 +1578,10 @@
         <f>SUM(B24:B25)</f>
         <v>0.37</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1597,12 +1597,12 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1611,10 +1611,10 @@
       <c r="B31" s="46">
         <v>0</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1623,10 +1623,10 @@
       <c r="B32" s="46">
         <v>0</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1635,10 +1635,10 @@
       <c r="B33" s="46">
         <v>0</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1647,10 +1647,10 @@
       <c r="B34" s="46">
         <v>0</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1659,10 +1659,10 @@
       <c r="B35" s="46">
         <v>0</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1671,10 +1671,10 @@
       <c r="B36" s="46">
         <v>0</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1683,10 +1683,10 @@
       <c r="B37" s="43">
         <v>0</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1695,12 +1695,12 @@
       <c r="B38" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1710,12 +1710,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1728,12 +1728,12 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1742,12 +1742,12 @@
       <c r="B43" s="31">
         <v>60</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1756,12 +1756,12 @@
       <c r="B44" s="31">
         <v>60</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1770,12 +1770,12 @@
       <c r="B45" s="31">
         <v>30</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1784,12 +1784,12 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1798,12 +1798,12 @@
       <c r="B49" s="32">
         <v>0.15</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1812,12 +1812,12 @@
       <c r="B50" s="32">
         <v>0.21</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1826,12 +1826,12 @@
       <c r="B51" s="44">
         <v>7</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1957,40 +1957,40 @@
         <v>104</v>
       </c>
       <c r="B57" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G57" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H57" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" s="34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K57" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L57" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" s="39" t="s">
         <v>103</v>
@@ -2002,51 +2002,51 @@
       </c>
       <c r="B58" s="33">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C58" s="33">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D58" s="33">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E58" s="33">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F58" s="33">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G58" s="33">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H58" s="33">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I58" s="33">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="33">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K58" s="33">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L58" s="33">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M58" s="33">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N58" s="39" t="s">
         <v>141</v>
@@ -2876,36 +2876,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hXRhqmt8oSgvQhcfGRLvfkt6A6uleQPe+AHKpno2A8b/+LQDz2UbDSbTXuKugmTZRb01UHjs8PleaLK2VJr0Mg==" saltValue="3mFlkajK2bFQHMIuB/fVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="46">
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2922,6 +2892,36 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B24:B25">

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C4BC86-A5E3-4F12-9300-16A3C387B601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F183B7-0BED-40C7-AE17-9CDFF9CF7093}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1836" windowWidth="17280" windowHeight="8976" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>Generic</t>
   </si>
@@ -508,6 +508,16 @@
   </si>
   <si>
     <t>Use if External</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Run Parameter Scan and 
+Save Results to Database?</t>
   </si>
 </sst>
 </file>
@@ -701,7 +711,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -749,12 +759,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -818,20 +822,27 @@
     <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -845,51 +856,56 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1230,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1292,114 +1308,114 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="J4" s="58" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="J4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="J5" s="51" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="J5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="J6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="J6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="J7" s="50" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="J7" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="J8" s="47" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="J8" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="J9" s="59" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="J9" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -1409,7 +1425,7 @@
       <c r="A12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="67">
         <v>1</v>
       </c>
       <c r="C12" s="52"/>
@@ -1421,7 +1437,7 @@
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="67">
         <v>2019</v>
       </c>
       <c r="C13" s="52"/>
@@ -1433,7 +1449,7 @@
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -1443,7 +1459,7 @@
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="52"/>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -1454,7 +1470,7 @@
       <c r="A16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="52"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -1465,7 +1481,7 @@
       <c r="A17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="52"/>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -1476,119 +1492,131 @@
       <c r="A18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="68">
         <v>1</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="52"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="54"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="56" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="28">
-        <v>0</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="28">
-        <v>0</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
+        <v>67</v>
+      </c>
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
+        <v>69</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C26" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="42">
-        <f>SUM(B24:B25)</f>
+      <c r="B27" s="40">
+        <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
@@ -1597,125 +1625,125 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="46">
-        <v>0</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="B31" s="44">
+        <v>0</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="46">
-        <v>0</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
+      <c r="B32" s="44">
+        <v>0</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="46">
-        <v>0</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
+      <c r="B33" s="44">
+        <v>0</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="46">
-        <v>0</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="B34" s="44">
+        <v>0</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="46">
-        <v>0</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="46">
-        <v>0</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="B36" s="44">
+        <v>0</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="43">
-        <v>0</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="B37" s="41">
+        <v>0</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="28">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1728,54 +1756,54 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1784,54 +1812,54 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1859,7 +1887,7 @@
       <c r="A55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="43">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1914,85 +1942,85 @@
       <c r="A56" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="31">
         <v>1</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="31">
         <v>1</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D56" s="31">
         <v>1</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="31">
         <v>1</v>
       </c>
-      <c r="F56" s="33">
+      <c r="F56" s="31">
         <v>1</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G56" s="31">
         <v>1</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="31">
         <v>1</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <v>1</v>
       </c>
-      <c r="J56" s="33">
+      <c r="J56" s="31">
         <v>1</v>
       </c>
-      <c r="K56" s="33">
+      <c r="K56" s="31">
         <v>1</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="31">
         <v>1</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="31">
         <v>1</v>
       </c>
-      <c r="N56" s="38"/>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B57" s="32">
         <v>3</v>
       </c>
-      <c r="C57" s="34">
+      <c r="C57" s="32">
         <v>3</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="32">
         <v>3</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="32">
         <v>3</v>
       </c>
-      <c r="F57" s="34">
+      <c r="F57" s="32">
         <v>4</v>
       </c>
-      <c r="G57" s="34">
+      <c r="G57" s="32">
         <v>4</v>
       </c>
-      <c r="H57" s="34">
+      <c r="H57" s="32">
         <v>4</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="32">
         <v>4</v>
       </c>
-      <c r="J57" s="34">
+      <c r="J57" s="32">
         <v>5</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="32">
         <v>5</v>
       </c>
-      <c r="L57" s="34">
+      <c r="L57" s="32">
         <v>5</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="32">
         <v>5</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="37" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2000,55 +2028,55 @@
       <c r="A58" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.3</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="31">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.3</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="31">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.3</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="31">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.3</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="31">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.25</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="31">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.25</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H58" s="31">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.25</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.25</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="31">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.2</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="31">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.2</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="31">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.2</v>
       </c>
-      <c r="M58" s="33">
+      <c r="M58" s="31">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
         <v>0.2</v>
       </c>
-      <c r="N58" s="39" t="s">
+      <c r="N58" s="37" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2056,43 +2084,43 @@
       <c r="A59" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="31">
         <v>0.25</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="31">
         <v>0.25</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="31">
         <v>0.25</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="31">
         <v>0.25</v>
       </c>
-      <c r="F59" s="33">
+      <c r="F59" s="31">
         <v>0.25</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="31">
         <v>0.25</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="31">
         <v>0.2</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>0.2</v>
       </c>
-      <c r="J59" s="33">
+      <c r="J59" s="31">
         <v>0.2</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="31">
         <v>0.15</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="31">
         <v>0.15</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="31">
         <v>0.15</v>
       </c>
-      <c r="N59" s="39" t="s">
+      <c r="N59" s="37" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2100,19 +2128,19 @@
       <c r="A60" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="39" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="37" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2120,19 +2148,19 @@
       <c r="A61" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="39" t="s">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2140,19 +2168,19 @@
       <c r="A62" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="39" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2160,21 +2188,21 @@
       <c r="A63" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="41">
+      <c r="B63" s="39">
         <v>-0.5</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="39" t="s">
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2182,19 +2210,19 @@
       <c r="A64" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="39" t="s">
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2202,19 +2230,19 @@
       <c r="A65" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="39" t="s">
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="37" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2362,82 +2390,82 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="39" t="s">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="39" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="39" t="s">
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="39" t="s">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2493,25 +2521,25 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N75" s="40"/>
+      <c r="N75" s="38"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="39" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="37" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2591,85 +2619,85 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="39" t="s">
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="39" t="s">
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="39" t="s">
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="39" t="s">
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O83" s="6"/>
@@ -2726,26 +2754,26 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N84" s="40"/>
+      <c r="N84" s="38"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="39" t="s">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="37" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2753,19 +2781,19 @@
       <c r="A86" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="39" t="s">
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="37" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2773,19 +2801,19 @@
       <c r="A87" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="39" t="s">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="37" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2793,19 +2821,19 @@
       <c r="A88" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="36"/>
-      <c r="N88" s="39" t="s">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="37" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2813,19 +2841,19 @@
       <c r="A89" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="39" t="s">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="37" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2833,19 +2861,19 @@
       <c r="A90" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="39" t="s">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="37" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2873,25 +2901,26 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hXRhqmt8oSgvQhcfGRLvfkt6A6uleQPe+AHKpno2A8b/+LQDz2UbDSbTXuKugmTZRb01UHjs8PleaLK2VJr0Mg==" saltValue="3mFlkajK2bFQHMIuB/fVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="46">
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C30:F30"/>
+  <mergeCells count="47">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="C51:F51"/>
@@ -2906,30 +2935,30 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B24:B25">
+  <conditionalFormatting sqref="B25:B26">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>B6="Brand"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B26">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>B6="Brand"</formula>
     </cfRule>
@@ -2968,7 +2997,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
             <xm:f>'Selection Control'!$B$1:$B$2</xm:f>
@@ -2986,6 +3015,12 @@
             <xm:f>'Selection Control'!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7492C9F1-B2C7-4DE6-B1C7-FB2F9CF9DDE0}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3279,10 +3314,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E2E1D-1DA7-43EC-A894-786AF7D64AE1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,7 +3327,7 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3308,8 +3343,11 @@
       <c r="E1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3325,8 +3363,11 @@
       <c r="E2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F183B7-0BED-40C7-AE17-9CDFF9CF7093}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B8F38-8670-45A0-B089-BFD49CEDBF75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -822,6 +822,18 @@
     <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,18 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1308,223 +1308,223 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="J4" s="45" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="J5" s="66" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="J5" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="J6" s="49" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="J6" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="J7" s="65" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="J7" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="J8" s="62" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="J8" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="J9" s="46" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="J9" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="45">
         <v>2019</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1535,12 +1535,12 @@
         <v>49</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1550,10 +1550,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1563,10 +1563,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1576,12 +1576,12 @@
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,12 +1591,12 @@
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1607,10 +1607,10 @@
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1625,12 +1625,12 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1639,10 +1639,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1651,10 +1651,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1663,10 +1663,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1675,10 +1675,10 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1687,10 +1687,10 @@
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1699,10 +1699,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1711,10 +1711,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1723,12 +1723,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1738,12 +1738,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1756,12 +1756,12 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1770,12 +1770,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1784,12 +1784,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1798,12 +1798,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1812,12 +1812,12 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1826,12 +1826,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1840,12 +1840,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1854,12 +1854,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -2903,6 +2903,7 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xCBRyPnFHkUNZ4klSCxie2AP4PXTLDImHTT+M0ugymhm+amwrRhuY3BeKRllScdSzG+lpHEZmgVzgDBxNHhvrg==" saltValue="z5zb4cApg4BR9mg+pa8W+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="J8:L8"/>
@@ -2968,7 +2969,7 @@
       <formula>$B$9="Internal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="10">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
@@ -2981,7 +2982,7 @@
       <formula1>2018</formula1>
       <formula2>2040</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18 B58:M58 B56:M56" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2991,6 +2992,21 @@
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B43:B45" xr:uid="{C14FE8E3-FE0A-451E-964F-AACBAA117C4A}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{12812CCE-B845-4209-8D99-86299B6B5FEF}">
+      <formula1>2018</formula1>
+      <formula2>3000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B57:M57" xr:uid="{6625BC62-523B-4338-B324-1A9BF6FD8F59}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B59:M59" xr:uid="{0B5836C3-0B5B-493F-939F-C3ACEE97FF97}">
+      <formula1>-1</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:M60" xr:uid="{8F6EDE5F-95A1-4C79-8936-5D725351B59C}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\GFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56B8F38-8670-45A0-B089-BFD49CEDBF75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77EF7-FFC3-4F87-96AF-EEE67FB3F07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -834,48 +834,67 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -888,25 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1308,32 +1308,32 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="J4" s="48" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="J4" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="47"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="J5" s="69" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="J5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1342,15 +1342,15 @@
       <c r="B6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="J6" s="52" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="J6" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1359,30 +1359,30 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="J7" s="68" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="J7" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="J8" s="65" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="J8" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1391,35 +1391,35 @@
       <c r="B9" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="J9" s="49" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1428,10 +1428,10 @@
       <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1440,30 +1440,30 @@
       <c r="B13" s="45">
         <v>2019</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>101</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1482,10 +1482,10 @@
         <v>65</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1495,12 +1495,12 @@
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1508,10 +1508,10 @@
         <v>63</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1521,10 +1521,10 @@
       <c r="B20" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1535,12 +1535,12 @@
         <v>49</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1550,10 +1550,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1563,10 +1563,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1576,12 +1576,12 @@
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,12 +1591,12 @@
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1607,10 +1607,10 @@
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1625,12 +1625,12 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1639,10 +1639,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1651,10 +1651,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1663,10 +1663,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1675,10 +1675,10 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1687,10 +1687,10 @@
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1699,10 +1699,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1711,10 +1711,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1723,12 +1723,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1738,12 +1738,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1756,12 +1756,12 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1770,12 +1770,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="53" t="s">
+      <c r="C43" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1784,12 +1784,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1798,12 +1798,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1812,12 +1812,12 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1826,12 +1826,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1840,12 +1840,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1854,12 +1854,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C51" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1985,40 +1985,51 @@
         <v>104</v>
       </c>
       <c r="B57" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="32">
-        <v>3</v>
+        <f>B57+1</f>
+        <v>5</v>
       </c>
       <c r="D57" s="32">
-        <v>3</v>
+        <f>C57</f>
+        <v>5</v>
       </c>
       <c r="E57" s="32">
-        <v>3</v>
+        <f>D57+1</f>
+        <v>6</v>
       </c>
       <c r="F57" s="32">
-        <v>4</v>
+        <f>E57</f>
+        <v>6</v>
       </c>
       <c r="G57" s="32">
-        <v>4</v>
+        <f t="shared" ref="G57:M57" si="1">F57</f>
+        <v>6</v>
       </c>
       <c r="H57" s="32">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="I57" s="32">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J57" s="32">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="K57" s="32">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="L57" s="32">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="M57" s="32">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="N57" s="37" t="s">
         <v>103</v>
@@ -2030,51 +2041,51 @@
       </c>
       <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C58" s="31">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D58" s="31">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E58" s="31">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F58" s="31">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G58" s="31">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H58" s="31">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I58" s="31">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J58" s="31">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K58" s="31">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L58" s="31">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M58" s="31">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N58" s="37" t="s">
         <v>141</v>
@@ -2255,47 +2266,47 @@
         <v>-0.5</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
+        <f t="shared" ref="C66:M66" si="2">C63+C64+C65</f>
         <v>0</v>
       </c>
       <c r="D66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M66" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N66" s="20"/>
@@ -2478,47 +2489,47 @@
         <v>0</v>
       </c>
       <c r="C75" s="24">
-        <f t="shared" ref="C75:M75" si="2">SUM(C71:C74)</f>
+        <f t="shared" ref="C75:M75" si="3">SUM(C71:C74)</f>
         <v>0</v>
       </c>
       <c r="D75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M75" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N75" s="38"/>
@@ -2711,47 +2722,47 @@
         <v>0</v>
       </c>
       <c r="C84" s="24">
-        <f t="shared" ref="C84:M84" si="3">SUM(C80:C83)</f>
+        <f t="shared" ref="C84:M84" si="4">SUM(C80:C83)</f>
         <v>0</v>
       </c>
       <c r="D84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M84" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N84" s="38"/>
@@ -2903,39 +2914,8 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xCBRyPnFHkUNZ4klSCxie2AP4PXTLDImHTT+M0ugymhm+amwrRhuY3BeKRllScdSzG+lpHEZmgVzgDBxNHhvrg==" saltValue="z5zb4cApg4BR9mg+pa8W+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CmaXKEXji+FmXcozm6AbBVFHlQbCjlQY8FdWwWDlRZDybb7Nu/041iGClS/Nimd9sn9cz++nxyHVyC9eIzELrA==" saltValue="a4cjgmM/Ckaku45l9wAVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2952,6 +2932,37 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
@@ -2969,7 +2980,7 @@
       <formula>$B$9="Internal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
@@ -2982,7 +2993,7 @@
       <formula1>2018</formula1>
       <formula2>2040</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18 B58:M58 B56:M56" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18 B56:M56" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -3005,6 +3016,10 @@
       <formula2>1</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60:M60" xr:uid="{8F6EDE5F-95A1-4C79-8936-5D725351B59C}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Caution" prompt="If a value is typed in here, remember to &quot;Save As&quot; to prevent the loss of the formula." sqref="B58:M58" xr:uid="{915AA62A-6D09-4AA6-93D9-EC622AEA81AA}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\GFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77EF7-FFC3-4F87-96AF-EEE67FB3F07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72CC3B-CB2C-49BB-80E1-B3C7CC189FB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Analog" sheetId="4" r:id="rId2"/>
     <sheet name="Selection Control" sheetId="2" r:id="rId3"/>
-    <sheet name="IMS Brand Names" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>Generic</t>
   </si>
@@ -64,114 +63,6 @@
   </si>
   <si>
     <t>Channel:</t>
-  </si>
-  <si>
-    <t>BAG BALM</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>LANTISEPTIC</t>
-  </si>
-  <si>
-    <t>EPZICOM</t>
-  </si>
-  <si>
-    <t>ABACAVIR/LAMIVUDINE</t>
-  </si>
-  <si>
-    <t>SECTRAL</t>
-  </si>
-  <si>
-    <t>ACEBUTOLOL HCL</t>
-  </si>
-  <si>
-    <t>ESGIC-PLUS</t>
-  </si>
-  <si>
-    <t>ORBIVAN</t>
-  </si>
-  <si>
-    <t>ANOLOR 300</t>
-  </si>
-  <si>
-    <t>CAPACET</t>
-  </si>
-  <si>
-    <t>MARGESIC</t>
-  </si>
-  <si>
-    <t>ESGIC</t>
-  </si>
-  <si>
-    <t>ZEBUTAL</t>
-  </si>
-  <si>
-    <t>FIORICET</t>
-  </si>
-  <si>
-    <t>BUTALB/APAP/CAF</t>
-  </si>
-  <si>
-    <t>REPAN</t>
-  </si>
-  <si>
-    <t>DOLGIC PLUS</t>
-  </si>
-  <si>
-    <t>VANATOL</t>
-  </si>
-  <si>
-    <t>ALAGESIC LQ</t>
-  </si>
-  <si>
-    <t>ALKA-SEL PLUS CLD/CGH</t>
-  </si>
-  <si>
-    <t>APAP/CPM/DM/PSE</t>
-  </si>
-  <si>
-    <t>CONTAC SEVERE COLD FORM</t>
-  </si>
-  <si>
-    <t>THERAFLU SEVERE C&amp;C</t>
-  </si>
-  <si>
-    <t>TYLENOL CHILD+FLU</t>
-  </si>
-  <si>
-    <t>PROPOXYPHEN-N/APAP</t>
-  </si>
-  <si>
-    <t>CEREFOLIN NAC</t>
-  </si>
-  <si>
-    <t>MEFOLAT/NAC/B12/AL</t>
-  </si>
-  <si>
-    <t>L-METHYL-MC NAC</t>
-  </si>
-  <si>
-    <t>MEFOLATE/B12/NCN</t>
-  </si>
-  <si>
-    <t>LEVOMEFOLATE CAL/NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS RF</t>
-  </si>
-  <si>
-    <t>ALZ-NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS</t>
-  </si>
-  <si>
-    <t>GLEEVEC</t>
-  </si>
-  <si>
-    <t>IMATINIB MESY</t>
   </si>
   <si>
     <t>Summary</t>
@@ -834,29 +725,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -870,43 +759,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,7 +1140,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1284,7 +1175,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1305,52 +1196,52 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="J4" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="C4" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="J4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B5" s="47"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="J5" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="J5" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="J6" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+        <v>117</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="J6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1359,172 +1250,172 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="J7" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="J7" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="J8" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="J8" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+        <v>119</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="J9" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B13" s="45">
         <v>2019</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+        <v>122</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1532,85 +1423,85 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="C22" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="C25" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="C26" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B27" s="40">
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,128 +1513,128 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="C30" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="C38" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B39" s="28">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="C39" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1753,113 +1644,113 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="C42" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="C43" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="C44" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="C45" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="C48" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="C49" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="C50" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="C51" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1867,7 +1758,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1885,7 +1776,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B55" s="43">
         <v>2019</v>
@@ -1935,12 +1826,12 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B56" s="31">
         <v>1</v>
@@ -1982,7 +1873,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B57" s="32">
         <v>4</v>
@@ -2032,12 +1923,12 @@
         <v>6</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -2088,12 +1979,12 @@
         <v>0.1</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B59" s="31">
         <v>0.25</v>
@@ -2132,12 +2023,12 @@
         <v>0.15</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2152,12 +2043,12 @@
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="37" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -2172,12 +2063,12 @@
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
       <c r="N61" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -2192,12 +2083,12 @@
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
       <c r="N62" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B63" s="39">
         <v>-0.5</v>
@@ -2214,12 +2105,12 @@
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
       <c r="N63" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -2234,12 +2125,12 @@
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -2254,12 +2145,12 @@
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
       <c r="N65" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
@@ -2340,7 +2231,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2358,7 +2249,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2397,12 +2288,12 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -2417,12 +2308,12 @@
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
       <c r="N71" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -2437,12 +2328,12 @@
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
       <c r="N72" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -2457,12 +2348,12 @@
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
       <c r="N73" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -2477,12 +2368,12 @@
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
       <c r="N74" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
@@ -2536,7 +2427,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -2551,7 +2442,7 @@
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
       <c r="N76" s="37" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2569,7 +2460,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2587,7 +2478,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2626,12 +2517,12 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B80" s="34"/>
       <c r="C80" s="35"/>
@@ -2646,13 +2537,13 @@
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
@@ -2667,13 +2558,13 @@
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
       <c r="N81" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="35"/>
@@ -2688,13 +2579,13 @@
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B83" s="34"/>
       <c r="C83" s="35"/>
@@ -2709,13 +2600,13 @@
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
@@ -2770,7 +2661,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -2785,12 +2676,12 @@
       <c r="L85" s="34"/>
       <c r="M85" s="34"/>
       <c r="N85" s="37" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -2805,12 +2696,12 @@
       <c r="L86" s="34"/>
       <c r="M86" s="34"/>
       <c r="N86" s="37" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -2825,12 +2716,12 @@
       <c r="L87" s="34"/>
       <c r="M87" s="34"/>
       <c r="N87" s="37" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -2845,12 +2736,12 @@
       <c r="L88" s="34"/>
       <c r="M88" s="34"/>
       <c r="N88" s="37" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -2865,12 +2756,12 @@
       <c r="L89" s="34"/>
       <c r="M89" s="34"/>
       <c r="N89" s="37" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -2885,7 +2776,7 @@
       <c r="L90" s="34"/>
       <c r="M90" s="34"/>
       <c r="N90" s="37" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2916,6 +2807,37 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CmaXKEXji+FmXcozm6AbBVFHlQbCjlQY8FdWwWDlRZDybb7Nu/041iGClS/Nimd9sn9cz++nxyHVyC9eIzELrA==" saltValue="a4cjgmM/Ckaku45l9wAVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2932,37 +2854,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
@@ -3064,7 +2955,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3074,7 +2965,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3112,7 +3003,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3150,7 +3041,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3188,7 +3079,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3226,7 +3117,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3264,7 +3155,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3302,7 +3193,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3339,6 +3230,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1e9kiYFxaMCD6yBwMZHfqUw3H69r60VTMqSrRZWFAAXJfNNb/cY2rXxzr89iP7YBH6RKT1sgRTts2Xz5iYvjhA==" saltValue="smiGRQ64GXw4cEhrlEvHVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3348,7 +3240,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3363,19 +3255,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3389,13 +3281,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,7 +3298,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3414,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,207 +3315,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F62D830-0C4A-41C4-A251-AA4AA1A50AFF}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A142">
-    <sortCondition ref="A1:A142"/>
-  </sortState>
+  <sheetProtection algorithmName="SHA-512" hashValue="p/KPkAodnXDrvwUwBffRCk+qqL27BHJxn6ip8hDplo1tJ3yiFga5WGf8V5xqh6pqZgEP1jgWHYm2Exhp9oE8FA==" saltValue="GYruHl8QH6QPAMyv0iaS1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\GFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72CC3B-CB2C-49BB-80E1-B3C7CC189FB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77EF7-FFC3-4F87-96AF-EEE67FB3F07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Analog" sheetId="4" r:id="rId2"/>
     <sheet name="Selection Control" sheetId="2" r:id="rId3"/>
+    <sheet name="IMS Brand Names" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
   <si>
     <t>Generic</t>
   </si>
@@ -63,6 +64,114 @@
   </si>
   <si>
     <t>Channel:</t>
+  </si>
+  <si>
+    <t>BAG BALM</t>
+  </si>
+  <si>
+    <t>ELON</t>
+  </si>
+  <si>
+    <t>LANTISEPTIC</t>
+  </si>
+  <si>
+    <t>EPZICOM</t>
+  </si>
+  <si>
+    <t>ABACAVIR/LAMIVUDINE</t>
+  </si>
+  <si>
+    <t>SECTRAL</t>
+  </si>
+  <si>
+    <t>ACEBUTOLOL HCL</t>
+  </si>
+  <si>
+    <t>ESGIC-PLUS</t>
+  </si>
+  <si>
+    <t>ORBIVAN</t>
+  </si>
+  <si>
+    <t>ANOLOR 300</t>
+  </si>
+  <si>
+    <t>CAPACET</t>
+  </si>
+  <si>
+    <t>MARGESIC</t>
+  </si>
+  <si>
+    <t>ESGIC</t>
+  </si>
+  <si>
+    <t>ZEBUTAL</t>
+  </si>
+  <si>
+    <t>FIORICET</t>
+  </si>
+  <si>
+    <t>BUTALB/APAP/CAF</t>
+  </si>
+  <si>
+    <t>REPAN</t>
+  </si>
+  <si>
+    <t>DOLGIC PLUS</t>
+  </si>
+  <si>
+    <t>VANATOL</t>
+  </si>
+  <si>
+    <t>ALAGESIC LQ</t>
+  </si>
+  <si>
+    <t>ALKA-SEL PLUS CLD/CGH</t>
+  </si>
+  <si>
+    <t>APAP/CPM/DM/PSE</t>
+  </si>
+  <si>
+    <t>CONTAC SEVERE COLD FORM</t>
+  </si>
+  <si>
+    <t>THERAFLU SEVERE C&amp;C</t>
+  </si>
+  <si>
+    <t>TYLENOL CHILD+FLU</t>
+  </si>
+  <si>
+    <t>PROPOXYPHEN-N/APAP</t>
+  </si>
+  <si>
+    <t>CEREFOLIN NAC</t>
+  </si>
+  <si>
+    <t>MEFOLAT/NAC/B12/AL</t>
+  </si>
+  <si>
+    <t>L-METHYL-MC NAC</t>
+  </si>
+  <si>
+    <t>MEFOLATE/B12/NCN</t>
+  </si>
+  <si>
+    <t>LEVOMEFOLATE CAL/NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS RF</t>
+  </si>
+  <si>
+    <t>ALZ-NAC</t>
+  </si>
+  <si>
+    <t>METAFOLBIC PLUS</t>
+  </si>
+  <si>
+    <t>GLEEVEC</t>
+  </si>
+  <si>
+    <t>IMATINIB MESY</t>
   </si>
   <si>
     <t>Summary</t>
@@ -725,48 +834,67 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -779,25 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1140,7 +1249,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1175,7 +1284,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1196,52 +1305,52 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="J4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="C4" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="J4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B5" s="47"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="J5" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="J5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="J6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+        <v>153</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="J6" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1250,172 +1359,172 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="J7" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="J7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="J8" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="67"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="J8" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="J9" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
+        <v>155</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B13" s="45">
         <v>2019</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="C18" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+        <v>158</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1423,85 +1532,85 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="C26" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B27" s="40">
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1513,128 +1622,128 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="C38" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B39" s="28">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="C39" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1644,113 +1753,113 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="C42" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="C43" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
+      <c r="C44" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
+      <c r="C45" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="C48" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="C49" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="C50" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="C51" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1758,7 +1867,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1776,7 +1885,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B55" s="43">
         <v>2019</v>
@@ -1826,12 +1935,12 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B56" s="31">
         <v>1</v>
@@ -1873,7 +1982,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B57" s="32">
         <v>4</v>
@@ -1923,12 +2032,12 @@
         <v>6</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -1979,12 +2088,12 @@
         <v>0.1</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B59" s="31">
         <v>0.25</v>
@@ -2023,12 +2132,12 @@
         <v>0.15</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2043,12 +2152,12 @@
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="37" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -2063,12 +2172,12 @@
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
       <c r="N61" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -2083,12 +2192,12 @@
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
       <c r="N62" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B63" s="39">
         <v>-0.5</v>
@@ -2105,12 +2214,12 @@
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
       <c r="N63" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -2125,12 +2234,12 @@
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -2145,12 +2254,12 @@
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
       <c r="N65" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
@@ -2231,7 +2340,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2249,7 +2358,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2288,12 +2397,12 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -2308,12 +2417,12 @@
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
       <c r="N71" s="37" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -2328,12 +2437,12 @@
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
       <c r="N72" s="37" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -2348,12 +2457,12 @@
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
       <c r="N73" s="37" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -2368,12 +2477,12 @@
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
       <c r="N74" s="37" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
@@ -2427,7 +2536,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -2442,7 +2551,7 @@
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
       <c r="N76" s="37" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2460,7 +2569,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2478,7 +2587,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2517,12 +2626,12 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B80" s="34"/>
       <c r="C80" s="35"/>
@@ -2537,13 +2646,13 @@
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
@@ -2558,13 +2667,13 @@
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
       <c r="N81" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="35"/>
@@ -2579,13 +2688,13 @@
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B83" s="34"/>
       <c r="C83" s="35"/>
@@ -2600,13 +2709,13 @@
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="37" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
@@ -2661,7 +2770,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -2676,12 +2785,12 @@
       <c r="L85" s="34"/>
       <c r="M85" s="34"/>
       <c r="N85" s="37" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -2696,12 +2805,12 @@
       <c r="L86" s="34"/>
       <c r="M86" s="34"/>
       <c r="N86" s="37" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -2716,12 +2825,12 @@
       <c r="L87" s="34"/>
       <c r="M87" s="34"/>
       <c r="N87" s="37" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -2736,12 +2845,12 @@
       <c r="L88" s="34"/>
       <c r="M88" s="34"/>
       <c r="N88" s="37" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -2756,12 +2865,12 @@
       <c r="L89" s="34"/>
       <c r="M89" s="34"/>
       <c r="N89" s="37" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -2776,7 +2885,7 @@
       <c r="L90" s="34"/>
       <c r="M90" s="34"/>
       <c r="N90" s="37" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2807,37 +2916,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CmaXKEXji+FmXcozm6AbBVFHlQbCjlQY8FdWwWDlRZDybb7Nu/041iGClS/Nimd9sn9cz++nxyHVyC9eIzELrA==" saltValue="a4cjgmM/Ckaku45l9wAVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2854,6 +2932,37 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
@@ -2955,7 +3064,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2965,7 +3074,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3003,7 +3112,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3041,7 +3150,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3079,7 +3188,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3117,7 +3226,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3155,7 +3264,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3193,7 +3302,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3230,7 +3339,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1e9kiYFxaMCD6yBwMZHfqUw3H69r60VTMqSrRZWFAAXJfNNb/cY2rXxzr89iP7YBH6RKT1sgRTts2Xz5iYvjhA==" saltValue="smiGRQ64GXw4cEhrlEvHVw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3240,7 +3348,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3255,19 +3363,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3281,13 +3389,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3298,7 +3406,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,7 +3414,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3315,7 +3423,207 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p/KPkAodnXDrvwUwBffRCk+qqL27BHJxn6ip8hDplo1tJ3yiFga5WGf8V5xqh6pqZgEP1jgWHYm2Exhp9oE8FA==" saltValue="GYruHl8QH6QPAMyv0iaS1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F62D830-0C4A-41C4-A251-AA4AA1A50AFF}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A142">
+    <sortCondition ref="A1:A142"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Desktop\GFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A77EF7-FFC3-4F87-96AF-EEE67FB3F07A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E433C-165A-4E67-96DA-392D699E0E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="30660" yWindow="1095" windowWidth="24105" windowHeight="12285" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Analog" sheetId="4" r:id="rId2"/>
     <sheet name="Selection Control" sheetId="2" r:id="rId3"/>
-    <sheet name="IMS Brand Names" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="DisplayName" localSheetId="1">Analog!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>Generic</t>
   </si>
@@ -64,114 +66,6 @@
   </si>
   <si>
     <t>Channel:</t>
-  </si>
-  <si>
-    <t>BAG BALM</t>
-  </si>
-  <si>
-    <t>ELON</t>
-  </si>
-  <si>
-    <t>LANTISEPTIC</t>
-  </si>
-  <si>
-    <t>EPZICOM</t>
-  </si>
-  <si>
-    <t>ABACAVIR/LAMIVUDINE</t>
-  </si>
-  <si>
-    <t>SECTRAL</t>
-  </si>
-  <si>
-    <t>ACEBUTOLOL HCL</t>
-  </si>
-  <si>
-    <t>ESGIC-PLUS</t>
-  </si>
-  <si>
-    <t>ORBIVAN</t>
-  </si>
-  <si>
-    <t>ANOLOR 300</t>
-  </si>
-  <si>
-    <t>CAPACET</t>
-  </si>
-  <si>
-    <t>MARGESIC</t>
-  </si>
-  <si>
-    <t>ESGIC</t>
-  </si>
-  <si>
-    <t>ZEBUTAL</t>
-  </si>
-  <si>
-    <t>FIORICET</t>
-  </si>
-  <si>
-    <t>BUTALB/APAP/CAF</t>
-  </si>
-  <si>
-    <t>REPAN</t>
-  </si>
-  <si>
-    <t>DOLGIC PLUS</t>
-  </si>
-  <si>
-    <t>VANATOL</t>
-  </si>
-  <si>
-    <t>ALAGESIC LQ</t>
-  </si>
-  <si>
-    <t>ALKA-SEL PLUS CLD/CGH</t>
-  </si>
-  <si>
-    <t>APAP/CPM/DM/PSE</t>
-  </si>
-  <si>
-    <t>CONTAC SEVERE COLD FORM</t>
-  </si>
-  <si>
-    <t>THERAFLU SEVERE C&amp;C</t>
-  </si>
-  <si>
-    <t>TYLENOL CHILD+FLU</t>
-  </si>
-  <si>
-    <t>PROPOXYPHEN-N/APAP</t>
-  </si>
-  <si>
-    <t>CEREFOLIN NAC</t>
-  </si>
-  <si>
-    <t>MEFOLAT/NAC/B12/AL</t>
-  </si>
-  <si>
-    <t>L-METHYL-MC NAC</t>
-  </si>
-  <si>
-    <t>MEFOLATE/B12/NCN</t>
-  </si>
-  <si>
-    <t>LEVOMEFOLATE CAL/NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS RF</t>
-  </si>
-  <si>
-    <t>ALZ-NAC</t>
-  </si>
-  <si>
-    <t>METAFOLBIC PLUS</t>
-  </si>
-  <si>
-    <t>GLEEVEC</t>
-  </si>
-  <si>
-    <t>IMATINIB MESY</t>
   </si>
   <si>
     <t>Summary</t>
@@ -518,6 +412,18 @@
   <si>
     <t>Run Parameter Scan and 
 Save Results to Database?</t>
+  </si>
+  <si>
+    <t>E.g. you enter 9, you'll need to have values for 11 players, otherwise the parameter scan will result in 0% market share for the years with &gt; 8 players.</t>
+  </si>
+  <si>
+    <t>If you do not run the parameter scan, you’ll only need to update the analog sheet if you enter a value larger than 10.</t>
+  </si>
+  <si>
+    <t>If you opt to run the parameter scan AND enter a value larger than 8, you'll need to update the Analog sheet for the number of players you select + 2.</t>
+  </si>
+  <si>
+    <t>The parameter scan runs through scenarios that increase the number of players by 2, and it references the analog table to update Net Price Percent of BWAC and Market Share.</t>
   </si>
 </sst>
 </file>
@@ -711,7 +617,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -907,6 +813,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1249,7 +1158,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1175,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1284,7 +1193,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1305,24 +1214,24 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="60" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="J4" s="62" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B5" s="47"/>
       <c r="C5" s="61"/>
@@ -1330,24 +1239,24 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="J5" s="55" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
       <c r="E6" s="59"/>
       <c r="F6" s="59"/>
       <c r="J6" s="66" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
@@ -1364,14 +1273,14 @@
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
       <c r="J7" s="54" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="59"/>
@@ -1379,31 +1288,31 @@
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
       <c r="J8" s="51" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
       <c r="J9" s="63" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="K9" s="64"/>
       <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="59"/>
@@ -1413,7 +1322,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="56"/>
@@ -1423,7 +1332,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B12" s="45">
         <v>1</v>
@@ -1435,7 +1344,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B13" s="45">
         <v>2019</v>
@@ -1447,7 +1356,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="56"/>
@@ -1457,7 +1366,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="56"/>
@@ -1468,7 +1377,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="56"/>
@@ -1479,7 +1388,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="56"/>
@@ -1490,13 +1399,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
@@ -1505,7 +1414,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="56"/>
@@ -1516,10 +1425,10 @@
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="49"/>
@@ -1532,11 +1441,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="60" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -1545,7 +1454,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B23" s="26">
         <v>0</v>
@@ -1558,7 +1467,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B24" s="26">
         <v>0</v>
@@ -1571,13 +1480,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
@@ -1586,13 +1495,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -1601,7 +1510,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B27" s="40">
         <f>SUM(B25:B26)</f>
@@ -1622,11 +1531,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="60" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -1634,7 +1543,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B31" s="44">
         <v>0</v>
@@ -1646,7 +1555,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B32" s="44">
         <v>0</v>
@@ -1658,7 +1567,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B33" s="44">
         <v>0</v>
@@ -1670,7 +1579,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B34" s="44">
         <v>0</v>
@@ -1682,7 +1591,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B35" s="44">
         <v>0</v>
@@ -1694,7 +1603,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B36" s="44">
         <v>0</v>
@@ -1706,7 +1615,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B37" s="41">
         <v>0</v>
@@ -1718,13 +1627,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
@@ -1732,14 +1641,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B39" s="28">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
@@ -1753,11 +1662,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="60" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
@@ -1765,13 +1674,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B43" s="29">
         <v>60</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
@@ -1779,13 +1688,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B44" s="29">
         <v>60</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
@@ -1793,13 +1702,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B45" s="29">
         <v>30</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D45" s="61"/>
       <c r="E45" s="61"/>
@@ -1809,11 +1718,11 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="60" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
@@ -1821,13 +1730,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D49" s="61"/>
       <c r="E49" s="61"/>
@@ -1835,13 +1744,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -1849,13 +1758,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B51" s="42">
         <v>7</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>
@@ -1867,7 +1776,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1885,7 +1794,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B55" s="43">
         <v>2019</v>
@@ -1935,12 +1844,12 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B56" s="31">
         <v>1</v>
@@ -1982,7 +1891,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B57" s="32">
         <v>4</v>
@@ -2032,12 +1941,12 @@
         <v>6</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
@@ -2088,12 +1997,12 @@
         <v>0.1</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B59" s="31">
         <v>0.25</v>
@@ -2132,12 +2041,12 @@
         <v>0.15</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -2152,12 +2061,12 @@
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="37" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -2172,12 +2081,12 @@
       <c r="L61" s="39"/>
       <c r="M61" s="39"/>
       <c r="N61" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -2192,12 +2101,12 @@
       <c r="L62" s="39"/>
       <c r="M62" s="39"/>
       <c r="N62" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B63" s="39">
         <v>-0.5</v>
@@ -2214,12 +2123,12 @@
       <c r="L63" s="39"/>
       <c r="M63" s="39"/>
       <c r="N63" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -2234,12 +2143,12 @@
       <c r="L64" s="39"/>
       <c r="M64" s="39"/>
       <c r="N64" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -2254,12 +2163,12 @@
       <c r="L65" s="39"/>
       <c r="M65" s="39"/>
       <c r="N65" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
@@ -2340,7 +2249,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2358,7 +2267,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2397,12 +2306,12 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -2417,12 +2326,12 @@
       <c r="L71" s="34"/>
       <c r="M71" s="34"/>
       <c r="N71" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -2437,12 +2346,12 @@
       <c r="L72" s="34"/>
       <c r="M72" s="34"/>
       <c r="N72" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -2457,12 +2366,12 @@
       <c r="L73" s="34"/>
       <c r="M73" s="34"/>
       <c r="N73" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
@@ -2477,12 +2386,12 @@
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
       <c r="N74" s="37" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
@@ -2536,7 +2445,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
@@ -2551,7 +2460,7 @@
       <c r="L76" s="34"/>
       <c r="M76" s="34"/>
       <c r="N76" s="37" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2569,7 +2478,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2587,7 +2496,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2626,12 +2535,12 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B80" s="34"/>
       <c r="C80" s="35"/>
@@ -2646,13 +2555,13 @@
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
       <c r="N80" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B81" s="34"/>
       <c r="C81" s="35"/>
@@ -2667,13 +2576,13 @@
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
       <c r="N81" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="35"/>
@@ -2688,13 +2597,13 @@
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B83" s="34"/>
       <c r="C83" s="35"/>
@@ -2709,13 +2618,13 @@
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
       <c r="N83" s="37" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
@@ -2770,7 +2679,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -2785,12 +2694,12 @@
       <c r="L85" s="34"/>
       <c r="M85" s="34"/>
       <c r="N85" s="37" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -2805,12 +2714,12 @@
       <c r="L86" s="34"/>
       <c r="M86" s="34"/>
       <c r="N86" s="37" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -2825,12 +2734,12 @@
       <c r="L87" s="34"/>
       <c r="M87" s="34"/>
       <c r="N87" s="37" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -2845,12 +2754,12 @@
       <c r="L88" s="34"/>
       <c r="M88" s="34"/>
       <c r="N88" s="37" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
@@ -2865,12 +2774,12 @@
       <c r="L89" s="34"/>
       <c r="M89" s="34"/>
       <c r="N89" s="37" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
@@ -2885,7 +2794,7 @@
       <c r="L90" s="34"/>
       <c r="M90" s="34"/>
       <c r="N90" s="37" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2914,7 +2823,7 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CmaXKEXji+FmXcozm6AbBVFHlQbCjlQY8FdWwWDlRZDybb7Nu/041iGClS/Nimd9sn9cz++nxyHVyC9eIzELrA==" saltValue="a4cjgmM/Ckaku45l9wAVqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yREGPgdgCVbAMJ9o6QlUFX/UE3JO8Jz9UO2v4ZAMevfBCo/nfO6C/R5cbStfpk0L3S8Eb/o9yvmnqxxSYEV+9A==" saltValue="wB/V+cYN9WyMpJwUJJtMuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
@@ -3008,7 +2917,7 @@
       <formula1>2018</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B57:M57" xr:uid="{6625BC62-523B-4338-B324-1A9BF6FD8F59}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" prompt="If you enter a value larger than 8, you'll need to update the Analog sheet. See notes in the Analog sheet." sqref="B57:M57" xr:uid="{6625BC62-523B-4338-B324-1A9BF6FD8F59}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B59:M59" xr:uid="{0B5836C3-0B5B-493F-939F-C3ACEE97FF97}">
@@ -3061,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55AFB7-2CA7-4AB2-BBC4-4165D73DCAB2}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,9 +2981,9 @@
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3109,10 +3018,25 @@
       <c r="L1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3148,9 +3072,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3186,9 +3110,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3224,9 +3148,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3262,9 +3186,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3300,9 +3224,9 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3338,8 +3262,36 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="70"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="70"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qeUe3MQ0YwG+S2ysr5YWwS3X6kX8sFV3n1X61/QfmgTNEYFGOj4KHFF5W6w1ANt2mfnyVgEqtVIIfht/5tg9QQ==" saltValue="1PWo7dexeMjA80/3BCKwFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3348,7 +3300,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3363,19 +3315,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3389,13 +3341,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,7 +3358,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3414,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3423,207 +3375,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F62D830-0C4A-41C4-A251-AA4AA1A50AFF}">
-  <dimension ref="A1:A36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A142">
-    <sortCondition ref="A1:A142"/>
-  </sortState>
+  <sheetProtection algorithmName="SHA-512" hashValue="p/KPkAodnXDrvwUwBffRCk+qqL27BHJxn6ip8hDplo1tJ3yiFga5WGf8V5xqh6pqZgEP1jgWHYm2Exhp9oE8FA==" saltValue="GYruHl8QH6QPAMyv0iaS1g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E433C-165A-4E67-96DA-392D699E0E8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41D05D-C959-4F0F-AB19-02A400FBAA1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30660" yWindow="1095" windowWidth="24105" windowHeight="12285" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -740,29 +740,30 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -776,46 +777,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1217,32 +1217,32 @@
         <v>10</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="J4" s="62" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="J4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="47"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="J5" s="55" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="J5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1251,15 +1251,15 @@
       <c r="B6" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="J6" s="66" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="J6" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1268,30 +1268,30 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="J7" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="J8" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1300,25 +1300,25 @@
       <c r="B9" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="63" t="s">
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="J9" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -1404,12 +1404,12 @@
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1430,10 +1430,10 @@
       <c r="B20" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1444,12 +1444,12 @@
         <v>13</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1459,10 +1459,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,10 +1472,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1485,12 +1485,12 @@
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,12 +1500,12 @@
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1516,10 +1516,10 @@
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1534,12 +1534,12 @@
         <v>11</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1548,10 +1548,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1560,10 +1560,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1572,10 +1572,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1584,10 +1584,10 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1596,10 +1596,10 @@
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1608,10 +1608,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1620,10 +1620,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1632,12 +1632,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1647,12 +1647,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1665,12 +1665,12 @@
         <v>47</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1679,12 +1679,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1693,12 +1693,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1707,12 +1707,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1721,12 +1721,12 @@
         <v>48</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1735,12 +1735,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1749,12 +1749,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1763,12 +1763,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1894,51 +1894,51 @@
         <v>68</v>
       </c>
       <c r="B57" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C57" s="32">
         <f>B57+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="32">
         <f>C57</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="32">
         <f>D57+1</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" s="32">
         <f>E57</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G57" s="32">
         <f t="shared" ref="G57:M57" si="1">F57</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H57" s="32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I57" s="32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J57" s="32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K57" s="32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L57" s="32">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M57" s="32">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>L57</f>
+        <v>8</v>
       </c>
       <c r="N57" s="37" t="s">
         <v>67</v>
@@ -1950,51 +1950,51 @@
       </c>
       <c r="B58" s="31">
         <f>HLOOKUP(B57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C58" s="31">
         <f>HLOOKUP(C57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="D58" s="31">
         <f>HLOOKUP(D57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E58" s="31">
         <f>HLOOKUP(E57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F58" s="31">
         <f>HLOOKUP(F57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G58" s="31">
         <f>HLOOKUP(G57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H58" s="31">
         <f>HLOOKUP(H57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I58" s="31">
         <f>HLOOKUP(I57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J58" s="31">
         <f>HLOOKUP(J57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K58" s="31">
         <f>HLOOKUP(K57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L58" s="31">
         <f>HLOOKUP(L57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M58" s="31">
         <f>HLOOKUP(M57,Analog!$B$1:$L$7,IF($B$7="Retail",3,IF($B$7="Clinic",5,7)))</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N58" s="37" t="s">
         <v>105</v>
@@ -2823,8 +2823,39 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yREGPgdgCVbAMJ9o6QlUFX/UE3JO8Jz9UO2v4ZAMevfBCo/nfO6C/R5cbStfpk0L3S8Eb/o9yvmnqxxSYEV+9A==" saltValue="wB/V+cYN9WyMpJwUJJtMuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6j7zsCISeGf4t32nFEImE/r1hcCVcVG/ifjswrOc/zJIsoh+/W5sjToRx4rJvRtTu6Z62JbgGAGLYewz5Siwww==" saltValue="NKU2BchgMJuk91KHyOMZ+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="47">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2841,37 +2872,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
@@ -2889,7 +2889,7 @@
       <formula>$B$9="Internal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
@@ -2917,9 +2917,6 @@
       <formula1>2018</formula1>
       <formula2>3000</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" prompt="If you enter a value larger than 8, you'll need to update the Analog sheet. See notes in the Analog sheet." sqref="B57:M57" xr:uid="{6625BC62-523B-4338-B324-1A9BF6FD8F59}">
-      <formula1>0</formula1>
-    </dataValidation>
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B59:M59" xr:uid="{0B5836C3-0B5B-493F-939F-C3ACEE97FF97}">
       <formula1>-1</formula1>
       <formula2>1</formula2>
@@ -2931,6 +2928,18 @@
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" promptTitle="Caution" prompt="If a value is typed in here, remember to &quot;Save As&quot; to prevent the loss of the formula." sqref="B58:M58" xr:uid="{915AA62A-6D09-4AA6-93D9-EC622AEA81AA}">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="If you enter a value larger than 8, you may need to update the Analog sheet. See notes on Analog sheet." sqref="B57" xr:uid="{5DFECC42-1DF6-4773-80CF-11A1F03FBDB4}">
+      <formula1>0</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="If you enter a value larger than 8, you may need to update the Analog sheet. See notes on Analog sheet." sqref="C57:D57" xr:uid="{6B5782D4-CACF-4629-B3C9-AD2D465555AC}">
+      <formula1>0</formula1>
+      <formula2>7</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="If you enter a value larger than 8, you may need to update the Analog sheet. See notes on Analog sheet." sqref="E57:M57" xr:uid="{2EFE1742-9238-4C27-A14D-2ED3E35A7BD0}">
+      <formula1>0</formula1>
+      <formula2>8</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55AFB7-2CA7-4AB2-BBC4-4165D73DCAB2}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3263,33 +3272,30 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="48"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="48" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A15" s="48" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qeUe3MQ0YwG+S2ysr5YWwS3X6kX8sFV3n1X61/QfmgTNEYFGOj4KHFF5W6w1ANt2mfnyVgEqtVIIfht/5tg9QQ==" saltValue="1PWo7dexeMjA80/3BCKwFg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="soA18I8/iOFD9B4K3exYl7fXUaqj5B2sFH6QHTmXfeW7xK0Eka6sSCvB9twOOYFelRTdaTil8n93RmiIPbIStA==" saltValue="+uw0lLVXW0Z1WT7UxHFfXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Model Inputs.xlsx
+++ b/Model Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41D05D-C959-4F0F-AB19-02A400FBAA1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B468D00D-1D37-4FB1-B717-B56ADBFB2E16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="1095" windowWidth="24105" windowHeight="12285" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
   <si>
     <t>Generic</t>
   </si>
@@ -408,10 +408,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Run Parameter Scan and 
-Save Results to Database?</t>
   </si>
   <si>
     <t>E.g. you enter 9, you'll need to have values for 11 players, otherwise the parameter scan will result in 0% market share for the years with &gt; 8 players.</t>
@@ -743,48 +739,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -797,25 +812,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1158,7 +1154,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1217,32 +1213,32 @@
         <v>10</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="J4" s="49" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="J4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="47"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="J5" s="70" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="J5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1251,15 +1247,15 @@
       <c r="B6" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="J6" s="53" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="J6" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1268,30 +1264,30 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="J7" s="69" t="s">
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="J7" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="J8" s="66" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="J8" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1300,35 +1296,35 @@
       <c r="B9" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="J9" s="50" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="J9" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1337,10 +1333,10 @@
       <c r="B12" s="45">
         <v>1</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1349,30 +1345,30 @@
       <c r="B13" s="45">
         <v>2019</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1380,10 +1376,10 @@
         <v>65</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1391,10 +1387,10 @@
         <v>29</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1404,12 +1400,12 @@
       <c r="B18" s="46">
         <v>1</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1417,23 +1413,15 @@
         <v>27</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1444,12 +1432,12 @@
         <v>13</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1459,10 +1447,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,10 +1460,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1485,12 +1473,12 @@
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,12 +1488,12 @@
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1516,10 +1504,10 @@
         <f>SUM(B25:B26)</f>
         <v>0.37</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1534,12 +1522,12 @@
         <v>11</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1548,10 +1536,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1560,10 +1548,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1572,10 +1560,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1584,10 +1572,10 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
@@ -1596,10 +1584,10 @@
       <c r="B35" s="44">
         <v>0</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1608,10 +1596,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1620,10 +1608,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1632,12 +1620,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1647,12 +1635,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1665,12 +1653,12 @@
         <v>47</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1679,12 +1667,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1693,12 +1681,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1707,12 +1695,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1721,12 +1709,12 @@
         <v>48</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1735,12 +1723,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1749,12 +1737,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1763,12 +1751,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -1913,7 +1901,7 @@
         <v>8</v>
       </c>
       <c r="G57" s="32">
-        <f t="shared" ref="G57:M57" si="1">F57</f>
+        <f t="shared" ref="G57:L57" si="1">F57</f>
         <v>8</v>
       </c>
       <c r="H57" s="32">
@@ -2823,39 +2811,8 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6j7zsCISeGf4t32nFEImE/r1hcCVcVG/ifjswrOc/zJIsoh+/W5sjToRx4rJvRtTu6Z62JbgGAGLYewz5Siwww==" saltValue="NKU2BchgMJuk91KHyOMZ+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="47">
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2FjKXvNMbI8vdb2RG2kAi2DJJJB9/kgzxYgjpv50Nxh7UBLnHazoTEzjXBIYGSLnhcTqbDFZtOv/KJOMbMjb1A==" saltValue="vAisBuSeNG3AM/RdJwRk0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="46">
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2872,6 +2829,36 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">
@@ -2946,7 +2933,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
             <xm:f>'Selection Control'!$B$1:$B$2</xm:f>
@@ -2964,12 +2951,6 @@
             <xm:f>'Selection Control'!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7492C9F1-B2C7-4DE6-B1C7-FB2F9CF9DDE0}">
-          <x14:formula1>
-            <xm:f>'Selection Control'!$F$1:$F$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3276,22 +3257,22 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
